--- a/Assignments/Project4/Results.xlsx
+++ b/Assignments/Project4/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCCE788-95BB-4AA3-B2A6-DE4B255C41A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB4CEFA-A10D-4066-9E2B-D62467DD7467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{15CFF10E-7D14-4B5C-96C9-63173A46350A}"/>
   </bookViews>
@@ -16,60 +16,61 @@
     <sheet name="Results" sheetId="2" r:id="rId1"/>
     <sheet name="Raw_Vector" sheetId="3" r:id="rId2"/>
     <sheet name="Raw_Scalar" sheetId="4" r:id="rId3"/>
-    <sheet name="Optimal" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Optimal" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Optimal!$L$3:$R$12</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.00001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Optimal!$AB$3:$AB$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Optimal!$L$3:$R$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Optimal!$T$3:$T$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Optimal!$AA$3:$AA$12</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Optimal!$AB$3:$AB$13</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Optimal!$AB$3:$AB$13</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Optimal!$AB$3:$AB$13</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Optimal!$AB$3:$AB$13</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Optimal!$Z$44</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.00001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">integer</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Optimal!$S$3:$S$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0.8</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs7" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">415</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Optimal!$L$3:$R$12</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.00001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Optimal!$AB$3:$AB$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Optimal!$L$3:$R$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Optimal!$T$3:$T$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Optimal!$AA$3:$AA$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Optimal!$AB$3:$AB$13</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Optimal!$AB$3:$AB$13</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Optimal!$AB$3:$AB$13</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Optimal!$AB$3:$AB$13</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Optimal!$Z$44</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.00001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">integer</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Optimal!$S$3:$S$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0.8</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">415</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="176">
   <si>
     <t>Network Generation Table</t>
   </si>
@@ -606,15 +607,25 @@
   <si>
     <t>Aggregate Observed Lifetime:</t>
   </si>
+  <si>
+    <t>Trans. 1</t>
+  </si>
+  <si>
+    <t>Trans. 2</t>
+  </si>
+  <si>
+    <t>Trans. 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -706,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1356,13 +1367,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,6 +1909,45 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1846,6 +1958,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1890,48 +2005,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1939,21 +2038,6 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="71">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1994,44 +2078,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -2325,6 +2371,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2335,6 +2396,44 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -2398,17 +2497,17 @@
   <autoFilter ref="M3:R23" xr:uid="{81BE867B-F114-4D4C-A4BB-177FDE524532}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4074303E-CB20-4CDD-828D-C5D8DBC11B3A}" name="Source"/>
-    <tableColumn id="2" xr3:uid="{BDE88FC3-97D2-49AF-B7FF-9279EF17404E}" name="Destination" dataDxfId="69" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{89CD024F-2284-4501-866B-35C2BCB50C4E}" name="% of Total Load" dataDxfId="68" totalsRowDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{BDE88FC3-97D2-49AF-B7FF-9279EF17404E}" name="Destination" dataDxfId="69" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{89CD024F-2284-4501-866B-35C2BCB50C4E}" name="% of Total Load" dataDxfId="68" totalsRowDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(nodeTime[Count],nodeTime[Source],Results!M4,nodeTime[Destination],Results!N4)/(SUM(nodeTime[Count]) -$U$15)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D366582D-8B09-4DC6-A026-F75B6567D79A}" name="% Difference (Load)" dataDxfId="67" totalsRowDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{D366582D-8B09-4DC6-A026-F75B6567D79A}" name="% Difference (Load)" dataDxfId="67" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>ABS(Table14[[#This Row],[% of Total Load]]-I4)/I4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{15BE1CD0-D053-496D-94A0-76432F90C493}" name="Nodetime" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{15BE1CD0-D053-496D-94A0-76432F90C493}" name="Nodetime" dataDxfId="66" dataCellStyle="Percent">
       <calculatedColumnFormula>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{259A930B-CAA2-4458-A02B-D855C5BA1E70}" name="% Diff (nodeTime)" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{259A930B-CAA2-4458-A02B-D855C5BA1E70}" name="% Diff (nodeTime)" dataDxfId="65" dataCellStyle="Percent">
       <calculatedColumnFormula>ABS(G4-Table14[[#This Row],[Nodetime]])/G4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2417,7 +2516,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F295B6A5-0B72-4105-80B1-07DEAF9E394A}" name="qlen_mean" displayName="qlen_mean" ref="Z9:AD81" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F295B6A5-0B72-4105-80B1-07DEAF9E394A}" name="qlen_mean" displayName="qlen_mean" ref="Z9:AD81" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="Z9:AD81" xr:uid="{2B7C465D-E6FD-4C7A-98E4-DE4610899933}"/>
   <sortState ref="Z10:AD81">
     <sortCondition ref="AA10:AA81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2425,20 +2524,20 @@
     <sortCondition ref="Z10:Z81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9BA6B383-A909-4F2D-BAD5-519B1A94B12C}" name="Run" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{3DC10029-79CB-4C0B-A20D-412752C56CE5}" name="Source" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{5D31766B-2AEC-429D-8BFD-40ADE8B8B53E}" name="Destination" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{9BA6B383-A909-4F2D-BAD5-519B1A94B12C}" name="Run" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3DC10029-79CB-4C0B-A20D-412752C56CE5}" name="Source" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{5D31766B-2AEC-429D-8BFD-40ADE8B8B53E}" name="Destination" dataDxfId="19">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(AC10, LEN(AC10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BDE4C249-FCE6-4C0B-AC37-0A3FA700879F}" name="Module" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{B1D41B69-DAC7-460A-A544-388F513A8E89}" name="mean qLen" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{BDE4C249-FCE6-4C0B-AC37-0A3FA700879F}" name="Module" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B1D41B69-DAC7-460A-A544-388F513A8E89}" name="mean qLen" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A91CF26E-8717-44A7-8B13-E702F2429DB7}" name="queueTime_max" displayName="queueTime_max" ref="AF9:AJ81" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A91CF26E-8717-44A7-8B13-E702F2429DB7}" name="queueTime_max" displayName="queueTime_max" ref="AF9:AJ81" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="AF9:AJ81" xr:uid="{C0C1A082-241A-417F-9ECB-AEAC3A7B804A}"/>
   <sortState ref="AF10:AJ81">
     <sortCondition ref="AG10:AG81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2446,20 +2545,20 @@
     <sortCondition ref="AF10:AF81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CC61096C-C1BB-4529-98FE-329C9C288C76}" name="Run" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{A61AC8CD-4F7A-452E-B6A4-1B3C9AD775CC}" name="Source" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{860C40C6-921F-41B0-8CBB-ECBBF8894FD3}" name="Destination" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{CC61096C-C1BB-4529-98FE-329C9C288C76}" name="Run" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A61AC8CD-4F7A-452E-B6A4-1B3C9AD775CC}" name="Source" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{860C40C6-921F-41B0-8CBB-ECBBF8894FD3}" name="Destination" dataDxfId="12">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(AI10, LEN(AI10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D555292C-9232-41D8-85DF-BE6A52FCEEBC}" name="Module" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{81ADB2BD-23AA-486B-8782-C9EF9248D679}" name="max Queue Time" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D555292C-9232-41D8-85DF-BE6A52FCEEBC}" name="Module" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{81ADB2BD-23AA-486B-8782-C9EF9248D679}" name="max Queue Time" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CB5F0FEB-E54B-4E61-9358-1AFE13A6DB20}" name="queueTime_mean" displayName="queueTime_mean" ref="AL9:AP81" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CB5F0FEB-E54B-4E61-9358-1AFE13A6DB20}" name="queueTime_mean" displayName="queueTime_mean" ref="AL9:AP81" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="AL9:AP81" xr:uid="{FD0A9CF9-C109-432C-BE2F-6BD1F549C7C4}"/>
   <sortState ref="AL10:AP81">
     <sortCondition ref="AM10:AM81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2467,13 +2566,13 @@
     <sortCondition ref="AL10:AL81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF4714CF-4742-4C95-809E-2FD7FC2B7677}" name="Run" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{61AE04CE-FD31-46FF-9D5B-C748F50A33B0}" name="Source" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{7CE7D5EF-1FC4-480B-9AAD-3335CAF8763B}" name="Destination" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{BF4714CF-4742-4C95-809E-2FD7FC2B7677}" name="Run" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{61AE04CE-FD31-46FF-9D5B-C748F50A33B0}" name="Source" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7CE7D5EF-1FC4-480B-9AAD-3335CAF8763B}" name="Destination" dataDxfId="5">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(AO10, LEN(AO10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5515CEB7-F2B3-4CDA-9274-90DA91E7068E}" name="Module" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{3112384F-6F51-4780-BB4C-049A7966918A}" name="mean Queue Time" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{5515CEB7-F2B3-4CDA-9274-90DA91E7068E}" name="Module" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3112384F-6F51-4780-BB4C-049A7966918A}" name="mean Queue Time" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2492,7 +2591,7 @@
     <tableColumn id="5" xr3:uid="{D5661DF2-B8BF-49D8-91B4-BFDBD9AEC141}" name="Count"/>
     <tableColumn id="6" xr3:uid="{813CE13C-5B38-4CFA-AE63-65C2C5AEA0EC}" name="Mean"/>
     <tableColumn id="7" xr3:uid="{22C24CF2-4093-4E0F-9A90-F983C90ACDB2}" name="StdDev"/>
-    <tableColumn id="8" xr3:uid="{33F74843-78E2-417A-ADF1-F659721E7AEA}" name="Traffic Load" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="8" xr3:uid="{33F74843-78E2-417A-ADF1-F659721E7AEA}" name="Traffic Load" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>nodeTime[[#This Row],[Count]]/SUM(nodeTime[Count])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2512,7 +2611,7 @@
     <tableColumn id="4" xr3:uid="{4A76C316-66FF-42E6-B8CC-0C9853C8164D}" name="Count"/>
     <tableColumn id="5" xr3:uid="{F6A37583-284C-40D3-8815-656BE9F6E4D8}" name="Mean"/>
     <tableColumn id="6" xr3:uid="{184740A6-CC34-47A0-A8C3-C4F2040D5682}" name="Std.Dev"/>
-    <tableColumn id="7" xr3:uid="{751989D3-2A8F-449E-9C8C-E15FBA2806E8}" name="Traffic Load" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="7" xr3:uid="{751989D3-2A8F-449E-9C8C-E15FBA2806E8}" name="Traffic Load" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>Table11[[#This Row],[Count]]/(SUM(Table11[Count]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2521,19 +2620,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EB4F150-41CC-40C4-ADD3-B243E12F3B03}" name="Table1" displayName="Table1" ref="L26:N32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EB4F150-41CC-40C4-ADD3-B243E12F3B03}" name="Table1" displayName="Table1" ref="L26:N32" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="L26:N32" xr:uid="{BAC9D747-6E07-49F8-82DD-915ACC068DC4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DF4379DE-F820-4EF2-B475-DB2F33D60134}" name="Destination" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D3362840-216A-4F6C-965C-A907C7F36A5C}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8B9894CC-D53F-41DA-B409-9254F37E3212}" name="Lifetime" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DF4379DE-F820-4EF2-B475-DB2F33D60134}" name="Destination" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{D3362840-216A-4F6C-965C-A907C7F36A5C}" name="Column1" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{8B9894CC-D53F-41DA-B409-9254F37E3212}" name="Lifetime" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E17DFD5-5479-40C3-838C-A6D9C57B476F}" name="nodeTIme_max" displayName="nodeTIme_max" ref="C9:F81" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E17DFD5-5479-40C3-838C-A6D9C57B476F}" name="nodeTIme_max" displayName="nodeTIme_max" ref="C9:F81" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="C9:F81" xr:uid="{C67040EA-B96D-4876-8CE2-3FDBCCDEC41F}"/>
   <sortState ref="C10:F81">
     <sortCondition ref="D10:D81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2541,17 +2640,17 @@
     <sortCondition ref="C10:C81"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{960E7CED-0614-48BE-A349-EDF199EE7FAF}" name="Run" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{27FF7AE6-0BE0-4CDB-8717-E9DCB2C0BCA2}" name="Source" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{B6808111-1E09-4DEE-9D27-9A4E54945FB2}" name="Destination" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{6A8B807F-A079-431C-8E3C-8A0366F9AB59}" name="max nodeTime" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{960E7CED-0614-48BE-A349-EDF199EE7FAF}" name="Run" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{27FF7AE6-0BE0-4CDB-8717-E9DCB2C0BCA2}" name="Source" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{B6808111-1E09-4DEE-9D27-9A4E54945FB2}" name="Destination" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{6A8B807F-A079-431C-8E3C-8A0366F9AB59}" name="max nodeTime" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BDA53B3-BE84-45E8-9617-9CBA946BBE4F}" name="nodeTime_mean" displayName="nodeTime_mean" ref="I9:M81" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BDA53B3-BE84-45E8-9617-9CBA946BBE4F}" name="nodeTime_mean" displayName="nodeTime_mean" ref="I9:M81" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="I9:M81" xr:uid="{5DD84A8C-34E1-4AC5-ADDD-1294BF53CAAE}"/>
   <sortState ref="I10:M81">
     <sortCondition ref="J10:J81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2559,56 +2658,56 @@
     <sortCondition ref="I10:I81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19132D78-9CB2-4090-B9DC-2614F67F1A8D}" name="Run" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{7591ABED-5E41-44EB-9966-264B4590FD64}" name="Source" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{3FC1EE4B-FCC5-412E-A9BE-1EBA7B6407DD}" name="Destination" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{8A4E59ED-92A3-4089-919F-F8DBDA941181}" name="Module" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{36F573F6-4361-4236-9D4B-A1E90C2BCBE7}" name="mean nodeTime" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{19132D78-9CB2-4090-B9DC-2614F67F1A8D}" name="Run" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{7591ABED-5E41-44EB-9966-264B4590FD64}" name="Source" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{3FC1EE4B-FCC5-412E-A9BE-1EBA7B6407DD}" name="Destination" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{8A4E59ED-92A3-4089-919F-F8DBDA941181}" name="Module" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{36F573F6-4361-4236-9D4B-A1E90C2BCBE7}" name="mean nodeTime" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5CE110E7-42FB-461C-B180-28EEC2885C6D}" name="lifetime_max" displayName="lifetime_max" ref="O9:R24" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5CE110E7-42FB-461C-B180-28EEC2885C6D}" name="lifetime_max" displayName="lifetime_max" ref="O9:R24" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="O9:R24" xr:uid="{49F5038A-0B32-432D-A7C5-1C7B7EA7E4A7}"/>
   <sortState ref="O10:R24">
     <sortCondition ref="P10:P24" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
     <sortCondition ref="O10:O24"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D442E4AC-C426-4A85-89DB-C8E9048B3D56}" name="Run" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{8844E6AE-8199-45F1-8B2C-B12EA85042CA}" name="Destination" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{D442E4AC-C426-4A85-89DB-C8E9048B3D56}" name="Run" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{8844E6AE-8199-45F1-8B2C-B12EA85042CA}" name="Destination" dataDxfId="39">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(Q10, LEN(Q10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{39E11BCD-BFC6-4655-BBFA-A228E12C9A03}" name="Column1" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{5E36B4FE-855D-4F96-8B11-6A8BF0891A56}" name="Max Lifetime" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{39E11BCD-BFC6-4655-BBFA-A228E12C9A03}" name="Column1" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{5E36B4FE-855D-4F96-8B11-6A8BF0891A56}" name="Max Lifetime" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC422C57-4083-4E0D-AD31-3EDBBDA44BB9}" name="lifetime_mean" displayName="lifetime_mean" ref="O27:R42" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC422C57-4083-4E0D-AD31-3EDBBDA44BB9}" name="lifetime_mean" displayName="lifetime_mean" ref="O27:R42" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="O27:R42" xr:uid="{5F555C64-3EEB-4510-811D-39D22E6AA4F6}"/>
   <sortState ref="O28:R42">
     <sortCondition ref="P28:P42" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
     <sortCondition ref="O28:O42"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{313A4356-581D-4528-9135-FA3EA84937C4}" name="Run" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{D99D03E9-3ACD-44C1-BD68-E33A4138D870}" name="Destination" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{313A4356-581D-4528-9135-FA3EA84937C4}" name="Run" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{D99D03E9-3ACD-44C1-BD68-E33A4138D870}" name="Destination" dataDxfId="33">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(Q28, LEN(Q28)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BE2D8887-C720-4BA8-8BCD-70CB5A640D8F}" name="Column1" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{43A2A936-C59A-4648-9C17-B7794AE059C1}" name="Mean Lifetime" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{BE2D8887-C720-4BA8-8BCD-70CB5A640D8F}" name="Column1" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{43A2A936-C59A-4648-9C17-B7794AE059C1}" name="Mean Lifetime" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2CEC84C-D2B2-4A45-A1D8-981DB6FB7DDD}" name="qlen_max" displayName="qlen_max" ref="T9:X81" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2CEC84C-D2B2-4A45-A1D8-981DB6FB7DDD}" name="qlen_max" displayName="qlen_max" ref="T9:X81" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="T9:X81" xr:uid="{0B3F223D-CB34-4BA6-8D6D-32A8D64A6E1E}"/>
   <sortState ref="T10:X81">
     <sortCondition ref="U10:U81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2616,13 +2715,13 @@
     <sortCondition ref="T10:T81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C93C6535-E1F1-4E6C-81A5-28003228E217}" name="Run" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{294945B7-314B-45AD-90B8-98966E2CFCE3}" name="Source" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{37067FED-484E-4982-BA6D-0CC9F510508B}" name="Destination" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{C93C6535-E1F1-4E6C-81A5-28003228E217}" name="Run" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{294945B7-314B-45AD-90B8-98966E2CFCE3}" name="Source" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{37067FED-484E-4982-BA6D-0CC9F510508B}" name="Destination" dataDxfId="26">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(W10, LEN(W10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4084C8B3-CF2B-4016-85FD-043450AE9656}" name="Module" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{B9664274-E942-43EA-96DB-E8E0B6AD90D1}" name="Max qLen" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{4084C8B3-CF2B-4016-85FD-043450AE9656}" name="Module" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{B9664274-E942-43EA-96DB-E8E0B6AD90D1}" name="Max qLen" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2927,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98234601-457C-40E1-BA95-B847C49CAA18}">
   <dimension ref="B2:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,6 +3050,7 @@
     <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3034,7 +3134,7 @@
       <c r="W3" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="211">
+      <c r="X3" s="193">
         <v>5.7094525588815897E-4</v>
       </c>
     </row>
@@ -3087,7 +3187,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I4)/I4</f>
         <v>1.5799849161976538E-3</v>
       </c>
-      <c r="Q4" s="213">
+      <c r="Q4" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>1.7269536304314601E-3</v>
       </c>
@@ -3107,7 +3207,7 @@
       <c r="W4" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="X4" s="212">
+      <c r="X4" s="194">
         <v>5.7286159413411596E-4</v>
       </c>
     </row>
@@ -3143,7 +3243,7 @@
         <v>0.63291139240506333</v>
       </c>
       <c r="K5" s="156">
-        <f t="shared" ref="K5:K23" si="2">I5*H5</f>
+        <f>I5*H5</f>
         <v>1.7014564914408534E-2</v>
       </c>
       <c r="M5" t="s">
@@ -3160,7 +3260,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I5)/I5</f>
         <v>1.6435485645944326E-4</v>
       </c>
-      <c r="Q5" s="213">
+      <c r="Q5" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>2.0268186983102301E-2</v>
       </c>
@@ -3180,7 +3280,7 @@
       <c r="W5" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="X5" s="211">
+      <c r="X5" s="193">
         <v>5.7173853630715799E-4</v>
       </c>
     </row>
@@ -3216,7 +3316,7 @@
         <v>0.25316455696202533</v>
       </c>
       <c r="K6" s="156">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K5:K23" si="2">I6*H6</f>
         <v>2.6701030927835052E-2</v>
       </c>
       <c r="M6" t="s">
@@ -3233,7 +3333,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I6)/I6</f>
         <v>9.6869917710896286E-4</v>
       </c>
-      <c r="Q6" s="213">
+      <c r="Q6" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>1.0024262631787668E-3</v>
       </c>
@@ -3253,7 +3353,7 @@
       <c r="W6" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="X6" s="212">
+      <c r="X6" s="194">
         <v>9.9392345799107005E-4</v>
       </c>
     </row>
@@ -3306,7 +3406,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I7)/I7</f>
         <v>1.7174298156035829E-3</v>
       </c>
-      <c r="Q7" s="213">
+      <c r="Q7" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>1.9060908552316399E-3</v>
       </c>
@@ -3326,12 +3426,12 @@
       <c r="W7" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="X7" s="211">
+      <c r="X7" s="193">
         <v>9.9742592128798505E-4</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="198" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="143" t="s">
@@ -3379,7 +3479,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I8)/I8</f>
         <v>1.0580482411922666E-4</v>
       </c>
-      <c r="Q8" s="213">
+      <c r="Q8" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>1.8978206021394734E-3</v>
       </c>
@@ -3404,7 +3504,7 @@
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="198" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="143" t="s">
@@ -3452,7 +3552,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I9)/I9</f>
         <v>4.3584783589349364E-4</v>
       </c>
-      <c r="Q9" s="213">
+      <c r="Q9" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>3.6489492265955304E-3</v>
       </c>
@@ -3477,7 +3577,7 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="198" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="143" t="s">
@@ -3525,7 +3625,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I10)/I10</f>
         <v>7.0750747768453387E-4</v>
       </c>
-      <c r="Q10" s="213">
+      <c r="Q10" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>1.8980686931851568E-3</v>
       </c>
@@ -3550,7 +3650,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="216" t="s">
+      <c r="B11" s="198" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="143" t="s">
@@ -3598,7 +3698,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I11)/I11</f>
         <v>1.5074352458755384E-3</v>
       </c>
-      <c r="Q11" s="213">
+      <c r="Q11" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>5.7539708316369925E-3</v>
       </c>
@@ -3623,7 +3723,7 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="198" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="143" t="s">
@@ -3671,7 +3771,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I12)/I12</f>
         <v>2.9251820893632378E-4</v>
       </c>
-      <c r="Q12" s="213">
+      <c r="Q12" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>4.3442897551819801E-4</v>
       </c>
@@ -3691,12 +3791,12 @@
       <c r="W12" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="X12" s="212">
+      <c r="X12" s="194">
         <v>5.7254861366508303E-4</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="198" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="143" t="s">
@@ -3744,7 +3844,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I13)/I13</f>
         <v>1.2149428094686734E-3</v>
       </c>
-      <c r="Q13" s="213">
+      <c r="Q13" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>3.637524104177163E-3</v>
       </c>
@@ -3764,12 +3864,12 @@
       <c r="W13" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="X13" s="211">
+      <c r="X13" s="193">
         <v>5.7297292269714703E-4</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="198" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="143" t="s">
@@ -3817,7 +3917,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I14)/I14</f>
         <v>3.5496504772525029E-4</v>
       </c>
-      <c r="Q14" s="213">
+      <c r="Q14" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>3.6147630545315334E-3</v>
       </c>
@@ -3837,12 +3937,12 @@
       <c r="W14" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="X14" s="212">
+      <c r="X14" s="194">
         <v>5.7119278024443697E-4</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="198" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="143" t="s">
@@ -3890,7 +3990,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I15)/I15</f>
         <v>2.7473516363604733E-5</v>
       </c>
-      <c r="Q15" s="213">
+      <c r="Q15" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>5.0648851627840335E-3</v>
       </c>
@@ -3905,10 +4005,10 @@
       <c r="V15" s="182"/>
       <c r="W15" s="182"/>
       <c r="X15" s="182"/>
-      <c r="Y15" s="211"/>
+      <c r="Y15" s="193"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="198" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="143" t="s">
@@ -3956,7 +4056,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I16)/I16</f>
         <v>1.3458243047150308E-3</v>
       </c>
-      <c r="Q16" s="213">
+      <c r="Q16" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>5.7048077090384765E-4</v>
       </c>
@@ -3966,7 +4066,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="198" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="143" t="s">
@@ -4014,7 +4114,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I17)/I17</f>
         <v>1.2683263087440888E-3</v>
       </c>
-      <c r="Q17" s="213">
+      <c r="Q17" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>3.6101048085557838E-3</v>
       </c>
@@ -4024,7 +4124,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="198" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="143" t="s">
@@ -4072,7 +4172,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I18)/I18</f>
         <v>2.1799694011348514E-3</v>
       </c>
-      <c r="Q18" s="213">
+      <c r="Q18" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>3.5946954410743803E-3</v>
       </c>
@@ -4082,7 +4182,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="198" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="143" t="s">
@@ -4130,7 +4230,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I19)/I19</f>
         <v>1.5641004472307903E-3</v>
       </c>
-      <c r="Q19" s="213">
+      <c r="Q19" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>5.7238263983633113E-4</v>
       </c>
@@ -4140,7 +4240,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="216" t="s">
+      <c r="B20" s="198" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="143" t="s">
@@ -4188,7 +4288,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I20)/I20</f>
         <v>4.3412966726555233E-4</v>
       </c>
-      <c r="Q20" s="213">
+      <c r="Q20" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>1.9055838456705967E-3</v>
       </c>
@@ -4198,7 +4298,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="143" t="s">
@@ -4246,7 +4346,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I21)/I21</f>
         <v>1.6365985724940552E-3</v>
       </c>
-      <c r="Q21" s="213">
+      <c r="Q21" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>4.4185664664943503E-2</v>
       </c>
@@ -4256,7 +4356,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="198" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="143" t="s">
@@ -4304,7 +4404,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I22)/I22</f>
         <v>2.1857510385684927E-3</v>
       </c>
-      <c r="Q22" s="213">
+      <c r="Q22" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>5.0993141509965501E-3</v>
       </c>
@@ -4362,7 +4462,7 @@
         <f>ABS(Table14[[#This Row],[% of Total Load]]-I23)/I23</f>
         <v>4.095985146774839E-4</v>
       </c>
-      <c r="Q23" s="213">
+      <c r="Q23" s="195">
         <f>AVERAGEIFS(nodeTime[Mean], nodeTime[Source],Table14[[#This Row],[Source]], nodeTime[Destination],Table14[[#This Row],[Destination]])</f>
         <v>9.9983038902502069E-4</v>
       </c>
@@ -4386,28 +4486,32 @@
       <c r="J24" s="142"/>
       <c r="K24" s="142"/>
       <c r="N24" s="142"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="215"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="194" t="s">
+      <c r="B25" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="142"/>
-      <c r="F25" s="193" t="s">
+      <c r="F25" s="210" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="193"/>
+      <c r="G25" s="210"/>
       <c r="H25" s="143"/>
       <c r="I25" s="142"/>
-      <c r="J25" s="193" t="s">
+      <c r="J25" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="193"/>
+      <c r="K25" s="210"/>
       <c r="L25" s="142"/>
       <c r="M25" s="142"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="237"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="158" t="s">
@@ -4463,10 +4567,10 @@
         <v>23</v>
       </c>
       <c r="K27" s="156">
-        <f>SUMIF($C$4:$C$23,J27,$K$4:$K$23)</f>
-        <v>9.4599554236727539E-3</v>
-      </c>
-      <c r="L27" s="142"/>
+        <f>SUMIF($C$4:$C$23,J27,$K$4:$K$23)/SUMIF($C$4:$C$23,J27,$I$4:$I$23)</f>
+        <v>9.1761567609625713E-2</v>
+      </c>
+      <c r="L27" s="156"/>
       <c r="M27" s="142"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
@@ -4495,8 +4599,8 @@
         <v>26</v>
       </c>
       <c r="K28" s="156">
-        <f t="shared" ref="K28:K31" si="5">SUMIF($C$4:$C$23,J28,$K$4:$K$23)</f>
-        <v>4.7920642516115393E-3</v>
+        <f t="shared" ref="K28:K31" si="5">SUMIF($C$4:$C$23,J28,$K$4:$K$23)/SUMIF($C$4:$C$23,J28,$I$4:$I$23)</f>
+        <v>3.3202159457594242E-2</v>
       </c>
       <c r="L28" s="142"/>
       <c r="M28" s="142"/>
@@ -4527,8 +4631,8 @@
         <v>29</v>
       </c>
       <c r="K29" s="156">
-        <f>SUMIF($C$4:$C$23,J29,$K$4:$K$23)</f>
-        <v>2.1986033208485599E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.6870539232616091E-2</v>
       </c>
       <c r="L29" s="142"/>
       <c r="M29" s="142"/>
@@ -4560,12 +4664,12 @@
       </c>
       <c r="K30" s="156">
         <f t="shared" si="5"/>
-        <v>5.6137822615876416E-2</v>
+        <v>0.198013410681455</v>
       </c>
       <c r="L30" s="142"/>
       <c r="M30" s="142"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="151" t="s">
         <v>32</v>
       </c>
@@ -4587,12 +4691,12 @@
       </c>
       <c r="H31" s="143"/>
       <c r="I31" s="142"/>
-      <c r="J31" s="151" t="s">
+      <c r="J31" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="156">
+      <c r="K31" s="157">
         <f t="shared" si="5"/>
-        <v>8.5196500966146123E-3</v>
+        <v>0.1033007574214522</v>
       </c>
       <c r="L31" s="142"/>
       <c r="M31" s="142"/>
@@ -4610,19 +4714,19 @@
         <v>1</v>
       </c>
       <c r="E32" s="142"/>
-      <c r="F32" s="222" t="s">
+      <c r="F32" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="223">
+      <c r="G32" s="204">
         <f>SUMPRODUCT(G4:G23,I4:I23)</f>
         <v>7.5610876973900296E-3</v>
       </c>
       <c r="H32" s="143"/>
       <c r="I32" s="142"/>
-      <c r="J32" s="222" t="s">
+      <c r="J32" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="223">
+      <c r="K32" s="204">
         <f>SUMPRODUCT(H4:H23,I4:I23)</f>
         <v>0.10089552559626093</v>
       </c>
@@ -4630,21 +4734,21 @@
       <c r="M32" s="142"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="195" t="s">
+      <c r="B34" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="F34" s="217" t="s">
+      <c r="C34" s="212"/>
+      <c r="D34" s="212"/>
+      <c r="F34" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="J34" s="227" t="s">
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="J34" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="227"/>
-      <c r="L34" s="227"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="158" t="s">
@@ -4656,10 +4760,10 @@
       <c r="D35" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="219" t="s">
+      <c r="G35" s="200" t="s">
         <v>95</v>
       </c>
       <c r="H35" s="162" t="s">
@@ -4668,7 +4772,7 @@
       <c r="J35" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="219" t="s">
+      <c r="K35" s="200" t="s">
         <v>153</v>
       </c>
       <c r="L35" s="161" t="s">
@@ -4687,10 +4791,10 @@
         <f>C36/$C$41</f>
         <v>0.40728568788728059</v>
       </c>
-      <c r="F36" s="220" t="s">
+      <c r="F36" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="221">
+      <c r="G36" s="202">
         <f>SUMPRODUCT(O4:O7,Q4:Q7)/SUM(O4:O7)</f>
         <v>1.3285773647872577E-2</v>
       </c>
@@ -4702,11 +4806,11 @@
         <v>23</v>
       </c>
       <c r="K36" s="143">
-        <v>9.1702628354698099E-2</v>
+        <v>9.1702628354698085E-2</v>
       </c>
       <c r="L36" s="190">
         <f>(K36-K27)/K27</f>
-        <v>8.693769605427514</v>
+        <v>-6.4230871881318916E-4</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -4721,10 +4825,10 @@
         <f t="shared" ref="D37:D40" si="6">C37/$C$41</f>
         <v>0.10821721878154182</v>
       </c>
-      <c r="F37" s="220" t="s">
+      <c r="F37" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="221">
+      <c r="G37" s="202">
         <f>SUMPRODUCT(O8:O11,Q8:Q11)/SUM(O8:O11)</f>
         <v>2.9155739485835878E-3</v>
       </c>
@@ -4736,11 +4840,11 @@
         <v>26</v>
       </c>
       <c r="K37" s="143">
-        <v>6.8068291187504112E-2</v>
+        <v>3.3508039035577017E-2</v>
       </c>
       <c r="L37" s="190">
-        <f t="shared" ref="L37:L41" si="8">(K37-K28)/K28</f>
-        <v>13.204377824152337</v>
+        <f t="shared" ref="L37:L40" si="8">(K37-K28)/K28</f>
+        <v>9.2126410745494956E-3</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4755,10 +4859,10 @@
         <f t="shared" si="6"/>
         <v>0.15471326729437668</v>
       </c>
-      <c r="F38" s="220" t="s">
+      <c r="F38" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="221">
+      <c r="G38" s="202">
         <f>SUMPRODUCT(O12:O15,Q12:Q15)/SUM(O12:O15)</f>
         <v>3.3342867022231383E-3</v>
       </c>
@@ -4770,11 +4874,11 @@
         <v>29</v>
       </c>
       <c r="K38" s="143">
-        <v>4.9019742024130897E-2</v>
+        <v>5.7485875895982058E-2</v>
       </c>
       <c r="L38" s="190">
         <f t="shared" si="8"/>
-        <v>1.2295855536692053</v>
+        <v>1.0819954789756288E-2</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -4789,10 +4893,10 @@
         <f t="shared" si="6"/>
         <v>0.15446705372996797</v>
       </c>
-      <c r="F39" s="220" t="s">
+      <c r="F39" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="221">
+      <c r="G39" s="202">
         <f>SUMPRODUCT(O16:O19,Q16:Q19)/SUM(O16:O19)</f>
         <v>2.5908439409634302E-3</v>
       </c>
@@ -4804,11 +4908,11 @@
         <v>31</v>
       </c>
       <c r="K39" s="143">
-        <v>3.3508039035577017E-2</v>
+        <v>0.19802589905134224</v>
       </c>
       <c r="L39" s="190">
         <f t="shared" si="8"/>
-        <v>-0.40311117399661023</v>
+        <v>6.306830352681005E-5</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4823,10 +4927,10 @@
         <f t="shared" si="6"/>
         <v>0.17531677230683296</v>
       </c>
-      <c r="F40" s="220" t="s">
+      <c r="F40" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="221">
+      <c r="G40" s="202">
         <f>SUMPRODUCT(O20:O23,Q20:Q23)/SUM(O20:O23)</f>
         <v>6.8243095197005332E-3</v>
       </c>
@@ -4838,11 +4942,11 @@
         <v>32</v>
       </c>
       <c r="K40" s="143">
-        <v>4.633780974708706E-2</v>
+        <v>0.10333782086079905</v>
       </c>
       <c r="L40" s="190">
         <f t="shared" si="8"/>
-        <v>4.438933432900015</v>
+        <v>3.5879155460245967E-4</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4857,14 +4961,14 @@
         <f>SUM(D36:D40)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="224" t="s">
+      <c r="F41" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="225">
+      <c r="G41" s="206">
         <f>SUMPRODUCT(Table14[% of Total Load], Table14[Nodetime])</f>
         <v>7.8390951014047066E-3</v>
       </c>
-      <c r="H41" s="226">
+      <c r="H41" s="207">
         <f>ABS(G41-G32)/G32</f>
         <v>3.6768176106546265E-2</v>
       </c>
@@ -4874,16 +4978,16 @@
       <c r="K41" s="166">
         <v>0.10118954343562811</v>
       </c>
-      <c r="L41" s="228">
-        <f t="shared" si="8"/>
+      <c r="L41" s="208">
+        <f>(K41-K32)/K32</f>
         <v>2.9140820430799803E-3</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="196" t="s">
+      <c r="B43" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="196"/>
+      <c r="C43" s="213"/>
       <c r="F43" s="144"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -4903,7 +5007,7 @@
         <f>(D36-D27)/D27</f>
         <v>1.6991709028398819E-4</v>
       </c>
-      <c r="F45" s="214" t="s">
+      <c r="F45" s="196" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4915,7 +5019,7 @@
         <f t="shared" ref="C46:C49" si="9">(D37-D28)/D28</f>
         <v>-2.7902649432797372E-4</v>
       </c>
-      <c r="F46" s="214" t="s">
+      <c r="F46" s="196" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4956,13 +5060,13 @@
     <sortCondition ref="C4:C23"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4975,8 +5079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BD90A3-1D0C-4ADE-9518-5EC7D0FD2819}">
   <dimension ref="A2:T81"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,11 +6021,11 @@
         <f>nodeTime[[#This Row],[Count]]/SUM(nodeTime[Count])</f>
         <v>6.8368498918305542E-2</v>
       </c>
-      <c r="L25" s="227" t="s">
+      <c r="L25" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="227"/>
-      <c r="N25" s="227"/>
+      <c r="M25" s="209"/>
+      <c r="N25" s="209"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -6028,8 +6132,8 @@
       </c>
       <c r="M28" s="142"/>
       <c r="N28" s="142">
-        <f t="shared" ref="N28:N31" si="2">SUMPRODUCT(O10:O12,P10:P12)/SUM(O10:O12)</f>
-        <v>6.8068291187504112E-2</v>
+        <f>SUMPRODUCT(O12:O14,P12:P14)/SUM(O12:O14)</f>
+        <v>3.3508039035577017E-2</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
@@ -6064,8 +6168,8 @@
       </c>
       <c r="M29" s="142"/>
       <c r="N29" s="142">
-        <f t="shared" si="2"/>
-        <v>4.9019742024130897E-2</v>
+        <f>SUMPRODUCT(O15:O17,P15:P17)/SUM(O15:O17)</f>
+        <v>5.7485875895982058E-2</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
@@ -6100,8 +6204,8 @@
       </c>
       <c r="M30" s="142"/>
       <c r="N30" s="142">
-        <f t="shared" si="2"/>
-        <v>3.3508039035577017E-2</v>
+        <f>SUMPRODUCT(O18:O20,P18:P20)/SUM(O18:O20)</f>
+        <v>0.19802589905134224</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
@@ -6136,8 +6240,8 @@
       </c>
       <c r="M31" s="142"/>
       <c r="N31" s="142">
-        <f t="shared" si="2"/>
-        <v>4.633780974708706E-2</v>
+        <f>SUMPRODUCT(O21:O23,P21:P23)/SUM(O21:O23)</f>
+        <v>0.10333782086079905</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
@@ -7356,7 +7460,7 @@
         <v>32</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" ref="D74:D80" si="3">INDEX($T$3:$T$7,_xlfn.NUMBERVALUE(MID(E74, LEN(E74)-1, 1))+1)</f>
+        <f t="shared" ref="D74:D80" si="2">INDEX($T$3:$T$7,_xlfn.NUMBERVALUE(MID(E74, LEN(E74)-1, 1))+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="E74" t="s">
@@ -7384,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="E75" t="s">
@@ -7412,7 +7516,7 @@
         <v>32</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="E76" t="s">
@@ -7440,7 +7544,7 @@
         <v>32</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="E77" t="s">
@@ -7468,7 +7572,7 @@
         <v>32</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="E78" t="s">
@@ -7496,7 +7600,7 @@
         <v>32</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="E79" t="s">
@@ -7524,7 +7628,7 @@
         <v>32</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="E80" t="s">
@@ -7564,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A895EB-CDD7-4FA2-A209-E414EC563E2F}">
   <dimension ref="B2:AP96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="B2:C7"/>
+    <sheetView topLeftCell="F24" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14367,7 +14471,7 @@
         <v>141</v>
       </c>
       <c r="V74" s="142" t="str">
-        <f t="shared" ref="V74:V105" si="10">INDEX($C$3:$C$7,MID(W74, LEN(W74)-1,1)+1)</f>
+        <f t="shared" ref="V74:V81" si="10">INDEX($C$3:$C$7,MID(W74, LEN(W74)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="W74" s="142" t="s">
@@ -14383,7 +14487,7 @@
         <v>141</v>
       </c>
       <c r="AB74" s="142" t="str">
-        <f t="shared" ref="AB74:AB105" si="11">INDEX($C$3:$C$7,MID(AC74, LEN(AC74)-1,1)+1)</f>
+        <f t="shared" ref="AB74:AB81" si="11">INDEX($C$3:$C$7,MID(AC74, LEN(AC74)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AC74" s="142" t="s">
@@ -14399,7 +14503,7 @@
         <v>141</v>
       </c>
       <c r="AH74" s="142" t="str">
-        <f t="shared" ref="AH74:AH105" si="12">INDEX($C$3:$C$7,MID(AI74, LEN(AI74)-1,1)+1)</f>
+        <f t="shared" ref="AH74:AH81" si="12">INDEX($C$3:$C$7,MID(AI74, LEN(AI74)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AI74" s="142" t="s">
@@ -14415,7 +14519,7 @@
         <v>141</v>
       </c>
       <c r="AN74" s="142" t="str">
-        <f t="shared" ref="AN74:AN105" si="13">INDEX($C$3:$C$7,MID(AO74, LEN(AO74)-1,1)+1)</f>
+        <f t="shared" ref="AN74:AN81" si="13">INDEX($C$3:$C$7,MID(AO74, LEN(AO74)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AO74" s="142" t="s">
@@ -15190,14 +15294,128 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF9F89-68E1-4DAC-B5A7-ADEE70401A99}">
+  <dimension ref="D4:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="229" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="230" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="231" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="232">
+        <v>0</v>
+      </c>
+      <c r="E5" s="143">
+        <v>0</v>
+      </c>
+      <c r="F5" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="232">
+        <v>0</v>
+      </c>
+      <c r="E6" s="143">
+        <v>0</v>
+      </c>
+      <c r="F6" s="233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="232">
+        <v>0</v>
+      </c>
+      <c r="E7" s="143">
+        <v>1</v>
+      </c>
+      <c r="F7" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="232">
+        <v>0</v>
+      </c>
+      <c r="E8" s="143">
+        <v>1</v>
+      </c>
+      <c r="F8" s="233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="232">
+        <v>1</v>
+      </c>
+      <c r="E9" s="143">
+        <v>0</v>
+      </c>
+      <c r="F9" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="232">
+        <v>1</v>
+      </c>
+      <c r="E10" s="143">
+        <v>0</v>
+      </c>
+      <c r="F10" s="233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="232">
+        <v>1</v>
+      </c>
+      <c r="E11" s="143">
+        <v>1</v>
+      </c>
+      <c r="F11" s="233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="234">
+        <v>1</v>
+      </c>
+      <c r="E12" s="235">
+        <v>1</v>
+      </c>
+      <c r="F12" s="236">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A397DD9-6FFE-4EDB-B7E8-B3531435192E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15242,28 +15460,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
     </row>
     <row r="2" spans="1:38" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -16525,16 +16743,16 @@
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="221"/>
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
@@ -16591,7 +16809,7 @@
       <c r="AL19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="35" t="s">
         <v>23</v>
       </c>
@@ -16726,10 +16944,10 @@
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="V21" s="12"/>
-      <c r="Z21" s="204" t="s">
+      <c r="Z21" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="AA21" s="205"/>
+      <c r="AA21" s="223"/>
       <c r="AD21" s="12"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
@@ -17172,16 +17390,16 @@
       <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="206" t="s">
+      <c r="A28" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="208" t="s">
+      <c r="B28" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="210"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="228"/>
       <c r="K28" s="105" t="s">
         <v>48</v>
       </c>
@@ -17207,7 +17425,7 @@
       <c r="AH28" s="12"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="207"/>
+      <c r="A29" s="225"/>
       <c r="B29" s="102" t="s">
         <v>23</v>
       </c>
@@ -17267,11 +17485,11 @@
       <c r="F31" s="21">
         <v>50</v>
       </c>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="AF31" s="12"/>

--- a/Assignments/Project4/Results.xlsx
+++ b/Assignments/Project4/Results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E34D4A-AD2E-4300-9694-4BFC75D7D7B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983029A-01D8-4AFE-BAD1-12AADC45DEE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{15CFF10E-7D14-4B5C-96C9-63173A46350A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{15CFF10E-7D14-4B5C-96C9-63173A46350A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="2" r:id="rId1"/>
     <sheet name="Raw_Vector" sheetId="3" r:id="rId2"/>
     <sheet name="Raw_Scalar" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Figures" sheetId="5" r:id="rId4"/>
     <sheet name="Optimal" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="173">
   <si>
     <t>Network Generation Table</t>
   </si>
@@ -607,15 +607,6 @@
   <si>
     <t>Aggregate Observed Lifetime:</t>
   </si>
-  <si>
-    <t>Trans. 1</t>
-  </si>
-  <si>
-    <t>Trans. 2</t>
-  </si>
-  <si>
-    <t>Trans. 3</t>
-  </si>
 </sst>
 </file>
 
@@ -717,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1367,75 +1358,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,30 +1874,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,6 +1944,7 @@
   </cellStyles>
   <dxfs count="71">
     <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2076,7 +1982,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2492,6 +2397,2705 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$B$27:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Hickam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qatar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Langley</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ramstein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$D$27:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40721649484536082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10824742268041238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15463917525773196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15463917525773196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17525773195876287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C977-4DD5-A49C-07F9C8204785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Results!$B$27:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Hickam</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cheyenne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Qatar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Langley</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Ramstein</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Results!$C$27:$C$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1050</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-C977-4DD5-A49C-07F9C8204785}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-738C-4186-9C94-494389E91EF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-738C-4186-9C94-494389E91EF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-738C-4186-9C94-494389E91EF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-738C-4186-9C94-494389E91EF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-738C-4186-9C94-494389E91EF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$B$36:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Hickam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cheyenne</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qatar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Langley</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ramstein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$D$36:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40728568788728059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10821721878154182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15471326729437668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15446705372996797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17531677230683296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-738C-4186-9C94-494389E91EF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredPieSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:dPt>
+                  <c:idx val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000C-738C-4186-9C94-494389E91EF7}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000E-738C-4186-9C94-494389E91EF7}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="2"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000010-738C-4186-9C94-494389E91EF7}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="3"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000012-738C-4186-9C94-494389E91EF7}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dPt>
+                  <c:idx val="4"/>
+                  <c:bubble3D val="0"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="20000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000014-738C-4186-9C94-494389E91EF7}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:pattFill prst="pct75">
+                      <a:fgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:fgClr>
+                      <a:bgClr>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:bgClr>
+                    </a:pattFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="1"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="1"/>
+                  <c:leaderLines>
+                    <c:spPr>
+                      <a:ln w="9525">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="50000"/>
+                            <a:lumOff val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                  </c:leaderLines>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Results!$B$36:$B$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Hickam</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cheyenne</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Qatar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Langley</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Ramstein</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Results!$C$36:$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>9481856</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2519362</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3601818</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3596086</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4081480</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-738C-4186-9C94-494389E91EF7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredPieSeries>
+          </c:ext>
+        </c:extLst>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FB2D08-1E17-4429-B736-BF30BC985C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AD90D6-7496-4E23-A69B-07390A646048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF4E03A-0350-4AFA-B0B8-F59CB0D5EF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="1857375"/>
+          <a:ext cx="3552826" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CEEED0-E0BF-49E1-8129-C03334B3B1B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="5848350"/>
+          <a:ext cx="3552826" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6FC3AAE0-4BE7-4E53-94DE-EC54E2698D0C}" name="Table14" displayName="Table14" ref="M3:R24" totalsRowCount="1" headerRowDxfId="70">
   <autoFilter ref="M3:R23" xr:uid="{81BE867B-F114-4D4C-A4BB-177FDE524532}"/>
@@ -2516,26 +5120,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F295B6A5-0B72-4105-80B1-07DEAF9E394A}" name="qlen_mean" displayName="qlen_mean" ref="Z9:AD81" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F295B6A5-0B72-4105-80B1-07DEAF9E394A}" name="qlen_mean" displayName="qlen_mean" ref="Z9:AD81" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="Z9:AD81" xr:uid="{2B7C465D-E6FD-4C7A-98E4-DE4610899933}"/>
   <sortState ref="Z10:AD81">
     <sortCondition descending="1" ref="AD9:AD81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9BA6B383-A909-4F2D-BAD5-519B1A94B12C}" name="Run" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3DC10029-79CB-4C0B-A20D-412752C56CE5}" name="Source" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5D31766B-2AEC-429D-8BFD-40ADE8B8B53E}" name="Destination" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{9BA6B383-A909-4F2D-BAD5-519B1A94B12C}" name="Run" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{3DC10029-79CB-4C0B-A20D-412752C56CE5}" name="Source" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5D31766B-2AEC-429D-8BFD-40ADE8B8B53E}" name="Destination" dataDxfId="16">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(AC10, LEN(AC10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BDE4C249-FCE6-4C0B-AC37-0A3FA700879F}" name="Module" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B1D41B69-DAC7-460A-A544-388F513A8E89}" name="mean qLen" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{BDE4C249-FCE6-4C0B-AC37-0A3FA700879F}" name="Module" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{B1D41B69-DAC7-460A-A544-388F513A8E89}" name="mean qLen" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A91CF26E-8717-44A7-8B13-E702F2429DB7}" name="queueTime_max" displayName="queueTime_max" ref="AF9:AJ81" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A91CF26E-8717-44A7-8B13-E702F2429DB7}" name="queueTime_max" displayName="queueTime_max" ref="AF9:AJ81" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="AF9:AJ81" xr:uid="{C0C1A082-241A-417F-9ECB-AEAC3A7B804A}"/>
   <sortState ref="AF10:AJ81">
     <sortCondition ref="AG10:AG81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2543,20 +5147,20 @@
     <sortCondition ref="AF10:AF81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CC61096C-C1BB-4529-98FE-329C9C288C76}" name="Run" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A61AC8CD-4F7A-452E-B6A4-1B3C9AD775CC}" name="Source" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{860C40C6-921F-41B0-8CBB-ECBBF8894FD3}" name="Destination" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{CC61096C-C1BB-4529-98FE-329C9C288C76}" name="Run" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A61AC8CD-4F7A-452E-B6A4-1B3C9AD775CC}" name="Source" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{860C40C6-921F-41B0-8CBB-ECBBF8894FD3}" name="Destination" dataDxfId="9">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(AI10, LEN(AI10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D555292C-9232-41D8-85DF-BE6A52FCEEBC}" name="Module" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{81ADB2BD-23AA-486B-8782-C9EF9248D679}" name="max Queue Time" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D555292C-9232-41D8-85DF-BE6A52FCEEBC}" name="Module" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{81ADB2BD-23AA-486B-8782-C9EF9248D679}" name="max Queue Time" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CB5F0FEB-E54B-4E61-9358-1AFE13A6DB20}" name="queueTime_mean" displayName="queueTime_mean" ref="AL9:AP81" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CB5F0FEB-E54B-4E61-9358-1AFE13A6DB20}" name="queueTime_mean" displayName="queueTime_mean" ref="AL9:AP81" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="AL9:AP81" xr:uid="{FD0A9CF9-C109-432C-BE2F-6BD1F549C7C4}"/>
   <sortState ref="AL10:AP81">
     <sortCondition ref="AM10:AM81" customList="Hickam,Cheyenne,Qatar,Langley,Ramstein"/>
@@ -2564,13 +5168,13 @@
     <sortCondition ref="AL10:AL81"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF4714CF-4742-4C95-809E-2FD7FC2B7677}" name="Run" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{61AE04CE-FD31-46FF-9D5B-C748F50A33B0}" name="Source" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7CE7D5EF-1FC4-480B-9AAD-3335CAF8763B}" name="Destination" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{BF4714CF-4742-4C95-809E-2FD7FC2B7677}" name="Run" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{61AE04CE-FD31-46FF-9D5B-C748F50A33B0}" name="Source" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7CE7D5EF-1FC4-480B-9AAD-3335CAF8763B}" name="Destination" dataDxfId="2">
       <calculatedColumnFormula>INDEX($C$3:$C$7,MID(AO10, LEN(AO10)-1,1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5515CEB7-F2B3-4CDA-9274-90DA91E7068E}" name="Module" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{3112384F-6F51-4780-BB4C-049A7966918A}" name="mean Queue Time" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{5515CEB7-F2B3-4CDA-9274-90DA91E7068E}" name="Module" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3112384F-6F51-4780-BB4C-049A7966918A}" name="mean Queue Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3022,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98234601-457C-40E1-BA95-B847C49CAA18}">
   <dimension ref="B2:Y50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,28 +7090,28 @@
       <c r="P24" s="197"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="223" t="s">
+      <c r="B25" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
       <c r="E25" s="142"/>
-      <c r="F25" s="222" t="s">
+      <c r="F25" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="222"/>
+      <c r="G25" s="214"/>
       <c r="H25" s="143"/>
       <c r="I25" s="142"/>
-      <c r="J25" s="222" t="s">
+      <c r="J25" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="222"/>
+      <c r="K25" s="214"/>
       <c r="L25" s="142"/>
       <c r="M25" s="142"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="217"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="209"/>
       <c r="Q25" s="184"/>
-      <c r="R25" s="217"/>
+      <c r="R25" s="209"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="158" t="s">
@@ -4730,21 +7334,21 @@
       <c r="M32" s="142"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="224" t="s">
+      <c r="B34" s="216" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="F34" s="220" t="s">
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="F34" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="220"/>
-      <c r="H34" s="220"/>
-      <c r="J34" s="221" t="s">
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="J34" s="213" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="221"/>
-      <c r="L34" s="221"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="158" t="s">
@@ -4980,10 +7584,10 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="219"/>
+      <c r="C43" s="211"/>
       <c r="F43" s="144"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -6017,11 +8621,11 @@
         <f>nodeTime[[#This Row],[Count]]/SUM(nodeTime[Count])</f>
         <v>6.8368498918305542E-2</v>
       </c>
-      <c r="L25" s="221" t="s">
+      <c r="L25" s="213" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -7664,7 +10268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A895EB-CDD7-4FA2-A209-E414EC563E2F}">
   <dimension ref="B2:AP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
@@ -7918,7 +10522,7 @@
         <v>23</v>
       </c>
       <c r="V10" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W10, LEN(W10)-1,1)+1)</f>
+        <f t="shared" ref="V10:V41" si="1">INDEX($C$3:$C$7,MID(W10, LEN(W10)-1,1)+1)</f>
         <v>Qatar</v>
       </c>
       <c r="W10" s="142" t="s">
@@ -7934,7 +10538,7 @@
         <v>23</v>
       </c>
       <c r="AB10" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC10, LEN(AC10)-1,1)+1)</f>
+        <f t="shared" ref="AB10:AB41" si="2">INDEX($C$3:$C$7,MID(AC10, LEN(AC10)-1,1)+1)</f>
         <v>Qatar</v>
       </c>
       <c r="AC10" s="142" t="s">
@@ -7950,7 +10554,7 @@
         <v>23</v>
       </c>
       <c r="AH10" s="142" t="str">
-        <f t="shared" ref="AH10:AH41" si="1">INDEX($C$3:$C$7,MID(AI10, LEN(AI10)-1,1)+1)</f>
+        <f t="shared" ref="AH10:AH41" si="3">INDEX($C$3:$C$7,MID(AI10, LEN(AI10)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AI10" s="142" t="s">
@@ -7966,7 +10570,7 @@
         <v>23</v>
       </c>
       <c r="AN10" s="142" t="str">
-        <f t="shared" ref="AN10:AN41" si="2">INDEX($C$3:$C$7,MID(AO10, LEN(AO10)-1,1)+1)</f>
+        <f t="shared" ref="AN10:AN41" si="4">INDEX($C$3:$C$7,MID(AO10, LEN(AO10)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AO10" s="142" t="s">
@@ -8027,7 +10631,7 @@
         <v>23</v>
       </c>
       <c r="V11" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W11, LEN(W11)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W11" s="142" t="s">
@@ -8043,7 +10647,7 @@
         <v>23</v>
       </c>
       <c r="AB11" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC11, LEN(AC11)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC11" s="142" t="s">
@@ -8059,7 +10663,7 @@
         <v>23</v>
       </c>
       <c r="AH11" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI11" s="142" t="s">
@@ -8075,7 +10679,7 @@
         <v>23</v>
       </c>
       <c r="AN11" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO11" s="142" t="s">
@@ -8136,7 +10740,7 @@
         <v>23</v>
       </c>
       <c r="V12" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W12, LEN(W12)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W12" s="142" t="s">
@@ -8152,7 +10756,7 @@
         <v>23</v>
       </c>
       <c r="AB12" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC12, LEN(AC12)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC12" s="142" t="s">
@@ -8168,7 +10772,7 @@
         <v>23</v>
       </c>
       <c r="AH12" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI12" s="142" t="s">
@@ -8184,7 +10788,7 @@
         <v>23</v>
       </c>
       <c r="AN12" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO12" s="142" t="s">
@@ -8246,7 +10850,7 @@
         <v>32</v>
       </c>
       <c r="V13" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W13, LEN(W13)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W13" s="142" t="s">
@@ -8262,7 +10866,7 @@
         <v>32</v>
       </c>
       <c r="AB13" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC13, LEN(AC13)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC13" s="142" t="s">
@@ -8278,7 +10882,7 @@
         <v>23</v>
       </c>
       <c r="AH13" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Qatar</v>
       </c>
       <c r="AI13" s="142" t="s">
@@ -8294,7 +10898,7 @@
         <v>23</v>
       </c>
       <c r="AN13" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Qatar</v>
       </c>
       <c r="AO13" s="142" t="s">
@@ -8356,7 +10960,7 @@
         <v>32</v>
       </c>
       <c r="V14" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W14, LEN(W14)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W14" s="142" t="s">
@@ -8372,7 +10976,7 @@
         <v>32</v>
       </c>
       <c r="AB14" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC14, LEN(AC14)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC14" s="142" t="s">
@@ -8388,7 +10992,7 @@
         <v>23</v>
       </c>
       <c r="AH14" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Qatar</v>
       </c>
       <c r="AI14" s="142" t="s">
@@ -8404,7 +11008,7 @@
         <v>23</v>
       </c>
       <c r="AN14" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Qatar</v>
       </c>
       <c r="AO14" s="142" t="s">
@@ -8466,7 +11070,7 @@
         <v>32</v>
       </c>
       <c r="V15" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W15, LEN(W15)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W15" s="142" t="s">
@@ -8482,7 +11086,7 @@
         <v>32</v>
       </c>
       <c r="AB15" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC15, LEN(AC15)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC15" s="142" t="s">
@@ -8498,7 +11102,7 @@
         <v>23</v>
       </c>
       <c r="AH15" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Qatar</v>
       </c>
       <c r="AI15" s="142" t="s">
@@ -8514,7 +11118,7 @@
         <v>23</v>
       </c>
       <c r="AN15" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Qatar</v>
       </c>
       <c r="AO15" s="142" t="s">
@@ -8575,7 +11179,7 @@
         <v>26</v>
       </c>
       <c r="V16" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W16, LEN(W16)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W16" s="142" t="s">
@@ -8591,7 +11195,7 @@
         <v>29</v>
       </c>
       <c r="AB16" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC16, LEN(AC16)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="AC16" s="142" t="s">
@@ -8607,7 +11211,7 @@
         <v>23</v>
       </c>
       <c r="AH16" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI16" s="142" t="s">
@@ -8623,7 +11227,7 @@
         <v>23</v>
       </c>
       <c r="AN16" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO16" s="142" t="s">
@@ -8684,7 +11288,7 @@
         <v>31</v>
       </c>
       <c r="V17" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W17, LEN(W17)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W17" s="142" t="s">
@@ -8700,7 +11304,7 @@
         <v>29</v>
       </c>
       <c r="AB17" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC17, LEN(AC17)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC17" s="142" t="s">
@@ -8716,7 +11320,7 @@
         <v>23</v>
       </c>
       <c r="AH17" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI17" s="142" t="s">
@@ -8732,7 +11336,7 @@
         <v>23</v>
       </c>
       <c r="AN17" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO17" s="142" t="s">
@@ -8793,7 +11397,7 @@
         <v>31</v>
       </c>
       <c r="V18" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W18, LEN(W18)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W18" s="142" t="s">
@@ -8809,7 +11413,7 @@
         <v>26</v>
       </c>
       <c r="AB18" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC18, LEN(AC18)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC18" s="142" t="s">
@@ -8825,7 +11429,7 @@
         <v>23</v>
       </c>
       <c r="AH18" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI18" s="142" t="s">
@@ -8841,7 +11445,7 @@
         <v>23</v>
       </c>
       <c r="AN18" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO18" s="142" t="s">
@@ -8902,7 +11506,7 @@
         <v>26</v>
       </c>
       <c r="V19" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W19, LEN(W19)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W19" s="142" t="s">
@@ -8918,7 +11522,7 @@
         <v>26</v>
       </c>
       <c r="AB19" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC19, LEN(AC19)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC19" s="142" t="s">
@@ -8934,7 +11538,7 @@
         <v>23</v>
       </c>
       <c r="AH19" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ramstein</v>
       </c>
       <c r="AI19" s="142" t="s">
@@ -8950,7 +11554,7 @@
         <v>23</v>
       </c>
       <c r="AN19" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ramstein</v>
       </c>
       <c r="AO19" s="142" t="s">
@@ -9011,7 +11615,7 @@
         <v>29</v>
       </c>
       <c r="V20" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W20, LEN(W20)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W20" s="142" t="s">
@@ -9027,7 +11631,7 @@
         <v>29</v>
       </c>
       <c r="AB20" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC20, LEN(AC20)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="AC20" s="142" t="s">
@@ -9043,7 +11647,7 @@
         <v>23</v>
       </c>
       <c r="AH20" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ramstein</v>
       </c>
       <c r="AI20" s="142" t="s">
@@ -9059,7 +11663,7 @@
         <v>23</v>
       </c>
       <c r="AN20" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ramstein</v>
       </c>
       <c r="AO20" s="142" t="s">
@@ -9120,7 +11724,7 @@
         <v>31</v>
       </c>
       <c r="V21" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W21, LEN(W21)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W21" s="142" t="s">
@@ -9136,7 +11740,7 @@
         <v>29</v>
       </c>
       <c r="AB21" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC21, LEN(AC21)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC21" s="142" t="s">
@@ -9152,7 +11756,7 @@
         <v>23</v>
       </c>
       <c r="AH21" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ramstein</v>
       </c>
       <c r="AI21" s="142" t="s">
@@ -9168,7 +11772,7 @@
         <v>23</v>
       </c>
       <c r="AN21" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ramstein</v>
       </c>
       <c r="AO21" s="142" t="s">
@@ -9230,7 +11834,7 @@
         <v>31</v>
       </c>
       <c r="V22" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W22, LEN(W22)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W22" s="142" t="s">
@@ -9246,7 +11850,7 @@
         <v>26</v>
       </c>
       <c r="AB22" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC22, LEN(AC22)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC22" s="142" t="s">
@@ -9262,7 +11866,7 @@
         <v>26</v>
       </c>
       <c r="AH22" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hickam</v>
       </c>
       <c r="AI22" s="142" t="s">
@@ -9278,7 +11882,7 @@
         <v>26</v>
       </c>
       <c r="AN22" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Hickam</v>
       </c>
       <c r="AO22" s="142" t="s">
@@ -9340,7 +11944,7 @@
         <v>26</v>
       </c>
       <c r="V23" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W23, LEN(W23)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W23" s="142" t="s">
@@ -9356,7 +11960,7 @@
         <v>29</v>
       </c>
       <c r="AB23" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC23, LEN(AC23)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC23" s="142" t="s">
@@ -9372,7 +11976,7 @@
         <v>26</v>
       </c>
       <c r="AH23" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hickam</v>
       </c>
       <c r="AI23" s="142" t="s">
@@ -9388,7 +11992,7 @@
         <v>26</v>
       </c>
       <c r="AN23" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Hickam</v>
       </c>
       <c r="AO23" s="142" t="s">
@@ -9450,7 +12054,7 @@
         <v>29</v>
       </c>
       <c r="V24" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W24, LEN(W24)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W24" s="142" t="s">
@@ -9466,7 +12070,7 @@
         <v>31</v>
       </c>
       <c r="AB24" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC24, LEN(AC24)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC24" s="142" t="s">
@@ -9482,7 +12086,7 @@
         <v>26</v>
       </c>
       <c r="AH24" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hickam</v>
       </c>
       <c r="AI24" s="142" t="s">
@@ -9498,7 +12102,7 @@
         <v>26</v>
       </c>
       <c r="AN24" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Hickam</v>
       </c>
       <c r="AO24" s="142" t="s">
@@ -9546,7 +12150,7 @@
         <v>29</v>
       </c>
       <c r="V25" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W25, LEN(W25)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W25" s="142" t="s">
@@ -9562,7 +12166,7 @@
         <v>31</v>
       </c>
       <c r="AB25" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC25, LEN(AC25)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC25" s="142" t="s">
@@ -9578,7 +12182,7 @@
         <v>26</v>
       </c>
       <c r="AH25" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Qatar</v>
       </c>
       <c r="AI25" s="142" t="s">
@@ -9594,7 +12198,7 @@
         <v>26</v>
       </c>
       <c r="AN25" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Qatar</v>
       </c>
       <c r="AO25" s="142" t="s">
@@ -9643,7 +12247,7 @@
         <v>29</v>
       </c>
       <c r="V26" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W26, LEN(W26)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W26" s="142" t="s">
@@ -9659,7 +12263,7 @@
         <v>31</v>
       </c>
       <c r="AB26" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC26, LEN(AC26)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC26" s="142" t="s">
@@ -9675,7 +12279,7 @@
         <v>26</v>
       </c>
       <c r="AH26" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Qatar</v>
       </c>
       <c r="AI26" s="142" t="s">
@@ -9691,7 +12295,7 @@
         <v>26</v>
       </c>
       <c r="AN26" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Qatar</v>
       </c>
       <c r="AO26" s="142" t="s">
@@ -9751,7 +12355,7 @@
         <v>31</v>
       </c>
       <c r="V27" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W27, LEN(W27)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W27" s="142" t="s">
@@ -9767,7 +12371,7 @@
         <v>31</v>
       </c>
       <c r="AB27" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC27, LEN(AC27)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC27" s="142" t="s">
@@ -9783,7 +12387,7 @@
         <v>26</v>
       </c>
       <c r="AH27" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Qatar</v>
       </c>
       <c r="AI27" s="142" t="s">
@@ -9799,7 +12403,7 @@
         <v>26</v>
       </c>
       <c r="AN27" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Qatar</v>
       </c>
       <c r="AO27" s="142" t="s">
@@ -9845,7 +12449,7 @@
         <v>106</v>
       </c>
       <c r="P28" s="142" t="str">
-        <f t="shared" ref="P28:P42" si="3">INDEX($C$3:$C$7,MID(Q28, LEN(Q28)-1,1)+1)</f>
+        <f t="shared" ref="P28:P42" si="5">INDEX($C$3:$C$7,MID(Q28, LEN(Q28)-1,1)+1)</f>
         <v>Hickam</v>
       </c>
       <c r="Q28" s="142" t="s">
@@ -9861,7 +12465,7 @@
         <v>29</v>
       </c>
       <c r="V28" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W28, LEN(W28)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W28" s="142" t="s">
@@ -9877,7 +12481,7 @@
         <v>31</v>
       </c>
       <c r="AB28" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC28, LEN(AC28)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC28" s="142" t="s">
@@ -9893,7 +12497,7 @@
         <v>26</v>
       </c>
       <c r="AH28" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI28" s="142" t="s">
@@ -9909,7 +12513,7 @@
         <v>26</v>
       </c>
       <c r="AN28" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO28" s="142" t="s">
@@ -9955,7 +12559,7 @@
         <v>103</v>
       </c>
       <c r="P29" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Hickam</v>
       </c>
       <c r="Q29" s="142" t="s">
@@ -9971,7 +12575,7 @@
         <v>31</v>
       </c>
       <c r="V29" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W29, LEN(W29)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W29" s="142" t="s">
@@ -9987,7 +12591,7 @@
         <v>31</v>
       </c>
       <c r="AB29" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC29, LEN(AC29)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC29" s="142" t="s">
@@ -10003,7 +12607,7 @@
         <v>26</v>
       </c>
       <c r="AH29" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI29" s="142" t="s">
@@ -10019,7 +12623,7 @@
         <v>26</v>
       </c>
       <c r="AN29" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO29" s="142" t="s">
@@ -10064,7 +12668,7 @@
         <v>105</v>
       </c>
       <c r="P30" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Hickam</v>
       </c>
       <c r="Q30" s="142" t="s">
@@ -10080,7 +12684,7 @@
         <v>23</v>
       </c>
       <c r="V30" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W30, LEN(W30)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W30" s="142" t="s">
@@ -10096,7 +12700,7 @@
         <v>29</v>
       </c>
       <c r="AB30" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC30, LEN(AC30)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="AC30" s="142" t="s">
@@ -10112,7 +12716,7 @@
         <v>26</v>
       </c>
       <c r="AH30" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI30" s="142" t="s">
@@ -10128,7 +12732,7 @@
         <v>26</v>
       </c>
       <c r="AN30" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO30" s="142" t="s">
@@ -10173,7 +12777,7 @@
         <v>106</v>
       </c>
       <c r="P31" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Cheyenne</v>
       </c>
       <c r="Q31" s="142" t="s">
@@ -10189,7 +12793,7 @@
         <v>29</v>
       </c>
       <c r="V31" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W31, LEN(W31)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W31" s="142" t="s">
@@ -10205,7 +12809,7 @@
         <v>32</v>
       </c>
       <c r="AB31" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC31, LEN(AC31)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC31" s="142" t="s">
@@ -10221,7 +12825,7 @@
         <v>26</v>
       </c>
       <c r="AH31" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ramstein</v>
       </c>
       <c r="AI31" s="142" t="s">
@@ -10237,7 +12841,7 @@
         <v>26</v>
       </c>
       <c r="AN31" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ramstein</v>
       </c>
       <c r="AO31" s="142" t="s">
@@ -10282,7 +12886,7 @@
         <v>103</v>
       </c>
       <c r="P32" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Cheyenne</v>
       </c>
       <c r="Q32" s="142" t="s">
@@ -10298,7 +12902,7 @@
         <v>141</v>
       </c>
       <c r="V32" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W32, LEN(W32)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Hickam</v>
       </c>
       <c r="W32" s="142" t="s">
@@ -10314,7 +12918,7 @@
         <v>32</v>
       </c>
       <c r="AB32" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC32, LEN(AC32)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC32" s="142" t="s">
@@ -10330,7 +12934,7 @@
         <v>26</v>
       </c>
       <c r="AH32" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ramstein</v>
       </c>
       <c r="AI32" s="142" t="s">
@@ -10346,7 +12950,7 @@
         <v>26</v>
       </c>
       <c r="AN32" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ramstein</v>
       </c>
       <c r="AO32" s="142" t="s">
@@ -10391,7 +12995,7 @@
         <v>105</v>
       </c>
       <c r="P33" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Cheyenne</v>
       </c>
       <c r="Q33" s="142" t="s">
@@ -10407,7 +13011,7 @@
         <v>32</v>
       </c>
       <c r="V33" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W33, LEN(W33)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W33" s="142" t="s">
@@ -10423,7 +13027,7 @@
         <v>29</v>
       </c>
       <c r="AB33" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC33, LEN(AC33)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Ramstein</v>
       </c>
       <c r="AC33" s="142" t="s">
@@ -10439,7 +13043,7 @@
         <v>26</v>
       </c>
       <c r="AH33" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Ramstein</v>
       </c>
       <c r="AI33" s="142" t="s">
@@ -10455,7 +13059,7 @@
         <v>26</v>
       </c>
       <c r="AN33" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ramstein</v>
       </c>
       <c r="AO33" s="142" t="s">
@@ -10500,7 +13104,7 @@
         <v>106</v>
       </c>
       <c r="P34" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Qatar</v>
       </c>
       <c r="Q34" s="142" t="s">
@@ -10516,7 +13120,7 @@
         <v>142</v>
       </c>
       <c r="V34" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W34, LEN(W34)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W34" s="142" t="s">
@@ -10532,7 +13136,7 @@
         <v>29</v>
       </c>
       <c r="AB34" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC34, LEN(AC34)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Ramstein</v>
       </c>
       <c r="AC34" s="142" t="s">
@@ -10548,7 +13152,7 @@
         <v>29</v>
       </c>
       <c r="AH34" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hickam</v>
       </c>
       <c r="AI34" s="142" t="s">
@@ -10564,7 +13168,7 @@
         <v>29</v>
       </c>
       <c r="AN34" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Hickam</v>
       </c>
       <c r="AO34" s="142" t="s">
@@ -10609,7 +13213,7 @@
         <v>103</v>
       </c>
       <c r="P35" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Qatar</v>
       </c>
       <c r="Q35" s="142" t="s">
@@ -10625,7 +13229,7 @@
         <v>23</v>
       </c>
       <c r="V35" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W35, LEN(W35)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W35" s="142" t="s">
@@ -10641,7 +13245,7 @@
         <v>32</v>
       </c>
       <c r="AB35" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC35, LEN(AC35)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="AC35" s="142" t="s">
@@ -10657,7 +13261,7 @@
         <v>29</v>
       </c>
       <c r="AH35" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hickam</v>
       </c>
       <c r="AI35" s="142" t="s">
@@ -10673,7 +13277,7 @@
         <v>29</v>
       </c>
       <c r="AN35" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Hickam</v>
       </c>
       <c r="AO35" s="142" t="s">
@@ -10718,7 +13322,7 @@
         <v>105</v>
       </c>
       <c r="P36" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Qatar</v>
       </c>
       <c r="Q36" s="142" t="s">
@@ -10734,7 +13338,7 @@
         <v>32</v>
       </c>
       <c r="V36" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W36, LEN(W36)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar</v>
       </c>
       <c r="W36" s="142" t="s">
@@ -10750,7 +13354,7 @@
         <v>29</v>
       </c>
       <c r="AB36" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC36, LEN(AC36)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Ramstein</v>
       </c>
       <c r="AC36" s="142" t="s">
@@ -10766,7 +13370,7 @@
         <v>29</v>
       </c>
       <c r="AH36" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hickam</v>
       </c>
       <c r="AI36" s="142" t="s">
@@ -10782,7 +13386,7 @@
         <v>29</v>
       </c>
       <c r="AN36" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Hickam</v>
       </c>
       <c r="AO36" s="142" t="s">
@@ -10827,7 +13431,7 @@
         <v>106</v>
       </c>
       <c r="P37" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Langley</v>
       </c>
       <c r="Q37" s="142" t="s">
@@ -10843,7 +13447,7 @@
         <v>141</v>
       </c>
       <c r="V37" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W37, LEN(W37)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Hickam</v>
       </c>
       <c r="W37" s="142" t="s">
@@ -10859,7 +13463,7 @@
         <v>141</v>
       </c>
       <c r="AB37" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC37, LEN(AC37)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Hickam</v>
       </c>
       <c r="AC37" s="142" t="s">
@@ -10875,7 +13479,7 @@
         <v>29</v>
       </c>
       <c r="AH37" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI37" s="142" t="s">
@@ -10891,7 +13495,7 @@
         <v>29</v>
       </c>
       <c r="AN37" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO37" s="142" t="s">
@@ -10936,7 +13540,7 @@
         <v>103</v>
       </c>
       <c r="P38" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Langley</v>
       </c>
       <c r="Q38" s="142" t="s">
@@ -10952,7 +13556,7 @@
         <v>29</v>
       </c>
       <c r="V38" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W38, LEN(W38)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Ramstein</v>
       </c>
       <c r="W38" s="142" t="s">
@@ -10968,7 +13572,7 @@
         <v>23</v>
       </c>
       <c r="AB38" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC38, LEN(AC38)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="AC38" s="142" t="s">
@@ -10984,7 +13588,7 @@
         <v>29</v>
       </c>
       <c r="AH38" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI38" s="142" t="s">
@@ -11000,7 +13604,7 @@
         <v>29</v>
       </c>
       <c r="AN38" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO38" s="142" t="s">
@@ -11046,7 +13650,7 @@
         <v>105</v>
       </c>
       <c r="P39" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Langley</v>
       </c>
       <c r="Q39" s="142" t="s">
@@ -11062,7 +13666,7 @@
         <v>32</v>
       </c>
       <c r="V39" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W39, LEN(W39)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Langley</v>
       </c>
       <c r="W39" s="142" t="s">
@@ -11078,7 +13682,7 @@
         <v>23</v>
       </c>
       <c r="AB39" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC39, LEN(AC39)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="AC39" s="142" t="s">
@@ -11094,7 +13698,7 @@
         <v>29</v>
       </c>
       <c r="AH39" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI39" s="142" t="s">
@@ -11110,7 +13714,7 @@
         <v>29</v>
       </c>
       <c r="AN39" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO39" s="142" t="s">
@@ -11156,7 +13760,7 @@
         <v>106</v>
       </c>
       <c r="P40" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Ramstein</v>
       </c>
       <c r="Q40" s="142" t="s">
@@ -11172,7 +13776,7 @@
         <v>142</v>
       </c>
       <c r="V40" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W40, LEN(W40)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Cheyenne</v>
       </c>
       <c r="W40" s="142" t="s">
@@ -11188,7 +13792,7 @@
         <v>23</v>
       </c>
       <c r="AB40" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC40, LEN(AC40)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Langley</v>
       </c>
       <c r="AC40" s="142" t="s">
@@ -11204,7 +13808,7 @@
         <v>29</v>
       </c>
       <c r="AH40" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI40" s="142" t="s">
@@ -11220,7 +13824,7 @@
         <v>29</v>
       </c>
       <c r="AN40" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO40" s="142" t="s">
@@ -11266,7 +13870,7 @@
         <v>103</v>
       </c>
       <c r="P41" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Ramstein</v>
       </c>
       <c r="Q41" s="142" t="s">
@@ -11282,7 +13886,7 @@
         <v>29</v>
       </c>
       <c r="V41" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W41, LEN(W41)-1,1)+1)</f>
+        <f t="shared" si="1"/>
         <v>Ramstein</v>
       </c>
       <c r="W41" s="142" t="s">
@@ -11298,7 +13902,7 @@
         <v>141</v>
       </c>
       <c r="AB41" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC41, LEN(AC41)-1,1)+1)</f>
+        <f t="shared" si="2"/>
         <v>Hickam</v>
       </c>
       <c r="AC41" s="142" t="s">
@@ -11314,7 +13918,7 @@
         <v>29</v>
       </c>
       <c r="AH41" s="142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Langley</v>
       </c>
       <c r="AI41" s="142" t="s">
@@ -11330,7 +13934,7 @@
         <v>29</v>
       </c>
       <c r="AN41" s="142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Langley</v>
       </c>
       <c r="AO41" s="142" t="s">
@@ -11375,7 +13979,7 @@
         <v>105</v>
       </c>
       <c r="P42" s="142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Ramstein</v>
       </c>
       <c r="Q42" s="142" t="s">
@@ -11391,7 +13995,7 @@
         <v>32</v>
       </c>
       <c r="V42" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W42, LEN(W42)-1,1)+1)</f>
+        <f t="shared" ref="V42:V73" si="6">INDEX($C$3:$C$7,MID(W42, LEN(W42)-1,1)+1)</f>
         <v>Qatar</v>
       </c>
       <c r="W42" s="142" t="s">
@@ -11407,7 +14011,7 @@
         <v>141</v>
       </c>
       <c r="AB42" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC42, LEN(AC42)-1,1)+1)</f>
+        <f t="shared" ref="AB42:AB73" si="7">INDEX($C$3:$C$7,MID(AC42, LEN(AC42)-1,1)+1)</f>
         <v>Hickam</v>
       </c>
       <c r="AC42" s="142" t="s">
@@ -11423,7 +14027,7 @@
         <v>29</v>
       </c>
       <c r="AH42" s="142" t="str">
-        <f t="shared" ref="AH42:AH73" si="4">INDEX($C$3:$C$7,MID(AI42, LEN(AI42)-1,1)+1)</f>
+        <f t="shared" ref="AH42:AH73" si="8">INDEX($C$3:$C$7,MID(AI42, LEN(AI42)-1,1)+1)</f>
         <v>Langley</v>
       </c>
       <c r="AI42" s="142" t="s">
@@ -11439,7 +14043,7 @@
         <v>29</v>
       </c>
       <c r="AN42" s="142" t="str">
-        <f t="shared" ref="AN42:AN73" si="5">INDEX($C$3:$C$7,MID(AO42, LEN(AO42)-1,1)+1)</f>
+        <f t="shared" ref="AN42:AN73" si="9">INDEX($C$3:$C$7,MID(AO42, LEN(AO42)-1,1)+1)</f>
         <v>Langley</v>
       </c>
       <c r="AO42" s="142" t="s">
@@ -11487,7 +14091,7 @@
         <v>141</v>
       </c>
       <c r="V43" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W43, LEN(W43)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W43" s="142" t="s">
@@ -11503,7 +14107,7 @@
         <v>142</v>
       </c>
       <c r="AB43" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC43, LEN(AC43)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC43" s="142" t="s">
@@ -11519,7 +14123,7 @@
         <v>29</v>
       </c>
       <c r="AH43" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Ramstein</v>
       </c>
       <c r="AI43" s="142" t="s">
@@ -11535,7 +14139,7 @@
         <v>29</v>
       </c>
       <c r="AN43" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Ramstein</v>
       </c>
       <c r="AO43" s="142" t="s">
@@ -11583,7 +14187,7 @@
         <v>23</v>
       </c>
       <c r="V44" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W44, LEN(W44)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Langley</v>
       </c>
       <c r="W44" s="142" t="s">
@@ -11599,7 +14203,7 @@
         <v>32</v>
       </c>
       <c r="AB44" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC44, LEN(AC44)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Langley</v>
       </c>
       <c r="AC44" s="142" t="s">
@@ -11615,7 +14219,7 @@
         <v>29</v>
       </c>
       <c r="AH44" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Ramstein</v>
       </c>
       <c r="AI44" s="142" t="s">
@@ -11631,7 +14235,7 @@
         <v>29</v>
       </c>
       <c r="AN44" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Ramstein</v>
       </c>
       <c r="AO44" s="142" t="s">
@@ -11679,7 +14283,7 @@
         <v>32</v>
       </c>
       <c r="V45" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W45, LEN(W45)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Qatar</v>
       </c>
       <c r="W45" s="142" t="s">
@@ -11695,7 +14299,7 @@
         <v>32</v>
       </c>
       <c r="AB45" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC45, LEN(AC45)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Langley</v>
       </c>
       <c r="AC45" s="142" t="s">
@@ -11711,7 +14315,7 @@
         <v>29</v>
       </c>
       <c r="AH45" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Ramstein</v>
       </c>
       <c r="AI45" s="142" t="s">
@@ -11727,7 +14331,7 @@
         <v>29</v>
       </c>
       <c r="AN45" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Ramstein</v>
       </c>
       <c r="AO45" s="142" t="s">
@@ -11775,7 +14379,7 @@
         <v>142</v>
       </c>
       <c r="V46" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W46, LEN(W46)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Cheyenne</v>
       </c>
       <c r="W46" s="142" t="s">
@@ -11791,7 +14395,7 @@
         <v>142</v>
       </c>
       <c r="AB46" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC46, LEN(AC46)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC46" s="142" t="s">
@@ -11807,7 +14411,7 @@
         <v>31</v>
       </c>
       <c r="AH46" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI46" s="142" t="s">
@@ -11823,7 +14427,7 @@
         <v>31</v>
       </c>
       <c r="AN46" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO46" s="142" t="s">
@@ -11871,7 +14475,7 @@
         <v>29</v>
       </c>
       <c r="V47" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W47, LEN(W47)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W47" s="142" t="s">
@@ -11887,7 +14491,7 @@
         <v>32</v>
       </c>
       <c r="AB47" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC47, LEN(AC47)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Langley</v>
       </c>
       <c r="AC47" s="142" t="s">
@@ -11903,7 +14507,7 @@
         <v>31</v>
       </c>
       <c r="AH47" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI47" s="142" t="s">
@@ -11919,7 +14523,7 @@
         <v>31</v>
       </c>
       <c r="AN47" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO47" s="142" t="s">
@@ -11967,7 +14571,7 @@
         <v>32</v>
       </c>
       <c r="V48" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W48, LEN(W48)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Langley</v>
       </c>
       <c r="W48" s="142" t="s">
@@ -11983,7 +14587,7 @@
         <v>142</v>
       </c>
       <c r="AB48" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC48, LEN(AC48)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC48" s="142" t="s">
@@ -11999,7 +14603,7 @@
         <v>31</v>
       </c>
       <c r="AH48" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI48" s="142" t="s">
@@ -12015,7 +14619,7 @@
         <v>31</v>
       </c>
       <c r="AN48" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO48" s="142" t="s">
@@ -12063,7 +14667,7 @@
         <v>26</v>
       </c>
       <c r="V49" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W49, LEN(W49)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W49" s="142" t="s">
@@ -12079,7 +14683,7 @@
         <v>23</v>
       </c>
       <c r="AB49" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC49, LEN(AC49)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC49" s="142" t="s">
@@ -12095,7 +14699,7 @@
         <v>31</v>
       </c>
       <c r="AH49" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI49" s="142" t="s">
@@ -12111,7 +14715,7 @@
         <v>31</v>
       </c>
       <c r="AN49" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO49" s="142" t="s">
@@ -12159,7 +14763,7 @@
         <v>32</v>
       </c>
       <c r="V50" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W50, LEN(W50)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W50" s="142" t="s">
@@ -12175,7 +14779,7 @@
         <v>32</v>
       </c>
       <c r="AB50" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC50, LEN(AC50)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC50" s="142" t="s">
@@ -12191,7 +14795,7 @@
         <v>31</v>
       </c>
       <c r="AH50" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI50" s="142" t="s">
@@ -12207,7 +14811,7 @@
         <v>31</v>
       </c>
       <c r="AN50" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO50" s="142" t="s">
@@ -12255,7 +14859,7 @@
         <v>23</v>
       </c>
       <c r="V51" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W51, LEN(W51)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W51" s="142" t="s">
@@ -12271,7 +14875,7 @@
         <v>26</v>
       </c>
       <c r="AB51" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC51, LEN(AC51)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Langley</v>
       </c>
       <c r="AC51" s="142" t="s">
@@ -12287,7 +14891,7 @@
         <v>31</v>
       </c>
       <c r="AH51" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI51" s="142" t="s">
@@ -12303,7 +14907,7 @@
         <v>31</v>
       </c>
       <c r="AN51" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO51" s="142" t="s">
@@ -12351,7 +14955,7 @@
         <v>23</v>
       </c>
       <c r="V52" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W52, LEN(W52)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W52" s="142" t="s">
@@ -12367,7 +14971,7 @@
         <v>23</v>
       </c>
       <c r="AB52" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC52, LEN(AC52)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC52" s="142" t="s">
@@ -12383,7 +14987,7 @@
         <v>31</v>
       </c>
       <c r="AH52" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Qatar</v>
       </c>
       <c r="AI52" s="142" t="s">
@@ -12399,7 +15003,7 @@
         <v>31</v>
       </c>
       <c r="AN52" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Qatar</v>
       </c>
       <c r="AO52" s="142" t="s">
@@ -12447,7 +15051,7 @@
         <v>26</v>
       </c>
       <c r="V53" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W53, LEN(W53)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W53" s="142" t="s">
@@ -12463,7 +15067,7 @@
         <v>23</v>
       </c>
       <c r="AB53" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC53, LEN(AC53)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC53" s="142" t="s">
@@ -12479,7 +15083,7 @@
         <v>31</v>
       </c>
       <c r="AH53" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Qatar</v>
       </c>
       <c r="AI53" s="142" t="s">
@@ -12495,7 +15099,7 @@
         <v>31</v>
       </c>
       <c r="AN53" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Qatar</v>
       </c>
       <c r="AO53" s="142" t="s">
@@ -12543,7 +15147,7 @@
         <v>26</v>
       </c>
       <c r="V54" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W54, LEN(W54)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Langley</v>
       </c>
       <c r="W54" s="142" t="s">
@@ -12559,7 +15163,7 @@
         <v>32</v>
       </c>
       <c r="AB54" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC54, LEN(AC54)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC54" s="142" t="s">
@@ -12575,7 +15179,7 @@
         <v>31</v>
       </c>
       <c r="AH54" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Qatar</v>
       </c>
       <c r="AI54" s="142" t="s">
@@ -12591,7 +15195,7 @@
         <v>31</v>
       </c>
       <c r="AN54" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Qatar</v>
       </c>
       <c r="AO54" s="142" t="s">
@@ -12640,7 +15244,7 @@
         <v>26</v>
       </c>
       <c r="V55" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W55, LEN(W55)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Langley</v>
       </c>
       <c r="W55" s="142" t="s">
@@ -12656,7 +15260,7 @@
         <v>26</v>
       </c>
       <c r="AB55" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC55, LEN(AC55)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC55" s="142" t="s">
@@ -12672,7 +15276,7 @@
         <v>31</v>
       </c>
       <c r="AH55" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Ramstein</v>
       </c>
       <c r="AI55" s="142" t="s">
@@ -12688,7 +15292,7 @@
         <v>31</v>
       </c>
       <c r="AN55" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Ramstein</v>
       </c>
       <c r="AO55" s="142" t="s">
@@ -12736,7 +15340,7 @@
         <v>23</v>
       </c>
       <c r="V56" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W56, LEN(W56)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Cheyenne</v>
       </c>
       <c r="W56" s="142" t="s">
@@ -12752,7 +15356,7 @@
         <v>26</v>
       </c>
       <c r="AB56" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC56, LEN(AC56)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Langley</v>
       </c>
       <c r="AC56" s="142" t="s">
@@ -12768,7 +15372,7 @@
         <v>31</v>
       </c>
       <c r="AH56" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Ramstein</v>
       </c>
       <c r="AI56" s="142" t="s">
@@ -12784,7 +15388,7 @@
         <v>31</v>
       </c>
       <c r="AN56" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Ramstein</v>
       </c>
       <c r="AO56" s="142" t="s">
@@ -12833,7 +15437,7 @@
         <v>23</v>
       </c>
       <c r="V57" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W57, LEN(W57)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Cheyenne</v>
       </c>
       <c r="W57" s="142" t="s">
@@ -12849,7 +15453,7 @@
         <v>26</v>
       </c>
       <c r="AB57" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC57, LEN(AC57)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC57" s="142" t="s">
@@ -12865,7 +15469,7 @@
         <v>31</v>
       </c>
       <c r="AH57" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Ramstein</v>
       </c>
       <c r="AI57" s="142" t="s">
@@ -12881,7 +15485,7 @@
         <v>31</v>
       </c>
       <c r="AN57" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Ramstein</v>
       </c>
       <c r="AO57" s="142" t="s">
@@ -12930,7 +15534,7 @@
         <v>23</v>
       </c>
       <c r="V58" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W58, LEN(W58)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W58" s="142" t="s">
@@ -12946,7 +15550,7 @@
         <v>26</v>
       </c>
       <c r="AB58" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC58, LEN(AC58)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC58" s="142" t="s">
@@ -12962,7 +15566,7 @@
         <v>32</v>
       </c>
       <c r="AH58" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI58" s="142" t="s">
@@ -12978,7 +15582,7 @@
         <v>32</v>
       </c>
       <c r="AN58" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO58" s="142" t="s">
@@ -13026,7 +15630,7 @@
         <v>26</v>
       </c>
       <c r="V59" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W59, LEN(W59)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W59" s="142" t="s">
@@ -13042,7 +15646,7 @@
         <v>32</v>
       </c>
       <c r="AB59" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC59, LEN(AC59)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC59" s="142" t="s">
@@ -13058,7 +15662,7 @@
         <v>32</v>
       </c>
       <c r="AH59" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI59" s="142" t="s">
@@ -13074,7 +15678,7 @@
         <v>32</v>
       </c>
       <c r="AN59" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO59" s="142" t="s">
@@ -13123,7 +15727,7 @@
         <v>26</v>
       </c>
       <c r="V60" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W60, LEN(W60)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Langley</v>
       </c>
       <c r="W60" s="142" t="s">
@@ -13139,7 +15743,7 @@
         <v>26</v>
       </c>
       <c r="AB60" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC60, LEN(AC60)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Langley</v>
       </c>
       <c r="AC60" s="142" t="s">
@@ -13155,7 +15759,7 @@
         <v>32</v>
       </c>
       <c r="AH60" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI60" s="142" t="s">
@@ -13171,7 +15775,7 @@
         <v>32</v>
       </c>
       <c r="AN60" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO60" s="142" t="s">
@@ -13219,7 +15823,7 @@
         <v>26</v>
       </c>
       <c r="V61" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W61, LEN(W61)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W61" s="142" t="s">
@@ -13235,7 +15839,7 @@
         <v>23</v>
       </c>
       <c r="AB61" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC61, LEN(AC61)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC61" s="142" t="s">
@@ -13251,7 +15855,7 @@
         <v>32</v>
       </c>
       <c r="AH61" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI61" s="142" t="s">
@@ -13267,7 +15871,7 @@
         <v>32</v>
       </c>
       <c r="AN61" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO61" s="142" t="s">
@@ -13315,7 +15919,7 @@
         <v>32</v>
       </c>
       <c r="V62" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W62, LEN(W62)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W62" s="142" t="s">
@@ -13331,7 +15935,7 @@
         <v>23</v>
       </c>
       <c r="AB62" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC62, LEN(AC62)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC62" s="142" t="s">
@@ -13347,7 +15951,7 @@
         <v>32</v>
       </c>
       <c r="AH62" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI62" s="142" t="s">
@@ -13363,7 +15967,7 @@
         <v>32</v>
       </c>
       <c r="AN62" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO62" s="142" t="s">
@@ -13411,7 +16015,7 @@
         <v>23</v>
       </c>
       <c r="V63" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W63, LEN(W63)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Cheyenne</v>
       </c>
       <c r="W63" s="142" t="s">
@@ -13427,7 +16031,7 @@
         <v>23</v>
       </c>
       <c r="AB63" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC63, LEN(AC63)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC63" s="142" t="s">
@@ -13443,7 +16047,7 @@
         <v>32</v>
       </c>
       <c r="AH63" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI63" s="142" t="s">
@@ -13459,7 +16063,7 @@
         <v>32</v>
       </c>
       <c r="AN63" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO63" s="142" t="s">
@@ -13507,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="V64" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W64, LEN(W64)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W64" s="142" t="s">
@@ -13523,7 +16127,7 @@
         <v>26</v>
       </c>
       <c r="AB64" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC64, LEN(AC64)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC64" s="142" t="s">
@@ -13539,7 +16143,7 @@
         <v>32</v>
       </c>
       <c r="AH64" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Qatar</v>
       </c>
       <c r="AI64" s="142" t="s">
@@ -13555,7 +16159,7 @@
         <v>32</v>
       </c>
       <c r="AN64" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Qatar</v>
       </c>
       <c r="AO64" s="142" t="s">
@@ -13603,7 +16207,7 @@
         <v>26</v>
       </c>
       <c r="V65" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W65, LEN(W65)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W65" s="142" t="s">
@@ -13619,7 +16223,7 @@
         <v>26</v>
       </c>
       <c r="AB65" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC65, LEN(AC65)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC65" s="142" t="s">
@@ -13635,7 +16239,7 @@
         <v>32</v>
       </c>
       <c r="AH65" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Qatar</v>
       </c>
       <c r="AI65" s="142" t="s">
@@ -13651,7 +16255,7 @@
         <v>32</v>
       </c>
       <c r="AN65" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Qatar</v>
       </c>
       <c r="AO65" s="142" t="s">
@@ -13699,7 +16303,7 @@
         <v>31</v>
       </c>
       <c r="V66" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W66, LEN(W66)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W66" s="142" t="s">
@@ -13715,7 +16319,7 @@
         <v>26</v>
       </c>
       <c r="AB66" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC66, LEN(AC66)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC66" s="142" t="s">
@@ -13731,7 +16335,7 @@
         <v>32</v>
       </c>
       <c r="AH66" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Qatar</v>
       </c>
       <c r="AI66" s="142" t="s">
@@ -13747,7 +16351,7 @@
         <v>32</v>
       </c>
       <c r="AN66" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Qatar</v>
       </c>
       <c r="AO66" s="142" t="s">
@@ -13795,7 +16399,7 @@
         <v>31</v>
       </c>
       <c r="V67" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W67, LEN(W67)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W67" s="142" t="s">
@@ -13811,7 +16415,7 @@
         <v>142</v>
       </c>
       <c r="AB67" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC67, LEN(AC67)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC67" s="142" t="s">
@@ -13827,7 +16431,7 @@
         <v>32</v>
       </c>
       <c r="AH67" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Langley</v>
       </c>
       <c r="AI67" s="142" t="s">
@@ -13843,7 +16447,7 @@
         <v>32</v>
       </c>
       <c r="AN67" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Langley</v>
       </c>
       <c r="AO67" s="142" t="s">
@@ -13891,7 +16495,7 @@
         <v>141</v>
       </c>
       <c r="V68" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W68, LEN(W68)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Cheyenne</v>
       </c>
       <c r="W68" s="142" t="s">
@@ -13907,7 +16511,7 @@
         <v>31</v>
       </c>
       <c r="AB68" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC68, LEN(AC68)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC68" s="142" t="s">
@@ -13923,7 +16527,7 @@
         <v>32</v>
       </c>
       <c r="AH68" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Langley</v>
       </c>
       <c r="AI68" s="142" t="s">
@@ -13939,7 +16543,7 @@
         <v>32</v>
       </c>
       <c r="AN68" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Langley</v>
       </c>
       <c r="AO68" s="142" t="s">
@@ -13987,7 +16591,7 @@
         <v>142</v>
       </c>
       <c r="V69" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W69, LEN(W69)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W69" s="142" t="s">
@@ -14003,7 +16607,7 @@
         <v>141</v>
       </c>
       <c r="AB69" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC69, LEN(AC69)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC69" s="142" t="s">
@@ -14019,7 +16623,7 @@
         <v>32</v>
       </c>
       <c r="AH69" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Langley</v>
       </c>
       <c r="AI69" s="142" t="s">
@@ -14035,7 +16639,7 @@
         <v>32</v>
       </c>
       <c r="AN69" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Langley</v>
       </c>
       <c r="AO69" s="142" t="s">
@@ -14083,7 +16687,7 @@
         <v>142</v>
       </c>
       <c r="V70" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W70, LEN(W70)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W70" s="142" t="s">
@@ -14099,7 +16703,7 @@
         <v>31</v>
       </c>
       <c r="AB70" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC70, LEN(AC70)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC70" s="142" t="s">
@@ -14115,7 +16719,7 @@
         <v>141</v>
       </c>
       <c r="AH70" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI70" s="142" t="s">
@@ -14131,7 +16735,7 @@
         <v>141</v>
       </c>
       <c r="AN70" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO70" s="142" t="s">
@@ -14179,7 +16783,7 @@
         <v>142</v>
       </c>
       <c r="V71" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W71, LEN(W71)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W71" s="142" t="s">
@@ -14195,7 +16799,7 @@
         <v>141</v>
       </c>
       <c r="AB71" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC71, LEN(AC71)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC71" s="142" t="s">
@@ -14211,7 +16815,7 @@
         <v>141</v>
       </c>
       <c r="AH71" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI71" s="142" t="s">
@@ -14227,7 +16831,7 @@
         <v>141</v>
       </c>
       <c r="AN71" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO71" s="142" t="s">
@@ -14275,7 +16879,7 @@
         <v>26</v>
       </c>
       <c r="V72" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W72, LEN(W72)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Ramstein</v>
       </c>
       <c r="W72" s="142" t="s">
@@ -14291,7 +16895,7 @@
         <v>31</v>
       </c>
       <c r="AB72" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC72, LEN(AC72)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Ramstein</v>
       </c>
       <c r="AC72" s="142" t="s">
@@ -14307,7 +16911,7 @@
         <v>141</v>
       </c>
       <c r="AH72" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Hickam</v>
       </c>
       <c r="AI72" s="142" t="s">
@@ -14323,7 +16927,7 @@
         <v>141</v>
       </c>
       <c r="AN72" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Hickam</v>
       </c>
       <c r="AO72" s="142" t="s">
@@ -14371,7 +16975,7 @@
         <v>29</v>
       </c>
       <c r="V73" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W73, LEN(W73)-1,1)+1)</f>
+        <f t="shared" si="6"/>
         <v>Hickam</v>
       </c>
       <c r="W73" s="142" t="s">
@@ -14387,7 +16991,7 @@
         <v>31</v>
       </c>
       <c r="AB73" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC73, LEN(AC73)-1,1)+1)</f>
+        <f t="shared" si="7"/>
         <v>Hickam</v>
       </c>
       <c r="AC73" s="142" t="s">
@@ -14403,7 +17007,7 @@
         <v>141</v>
       </c>
       <c r="AH73" s="142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI73" s="142" t="s">
@@ -14419,7 +17023,7 @@
         <v>141</v>
       </c>
       <c r="AN73" s="142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO73" s="142" t="s">
@@ -14467,7 +17071,7 @@
         <v>29</v>
       </c>
       <c r="V74" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W74, LEN(W74)-1,1)+1)</f>
+        <f t="shared" ref="V74:V105" si="10">INDEX($C$3:$C$7,MID(W74, LEN(W74)-1,1)+1)</f>
         <v>Hickam</v>
       </c>
       <c r="W74" s="142" t="s">
@@ -14483,7 +17087,7 @@
         <v>31</v>
       </c>
       <c r="AB74" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC74, LEN(AC74)-1,1)+1)</f>
+        <f t="shared" ref="AB74:AB105" si="11">INDEX($C$3:$C$7,MID(AC74, LEN(AC74)-1,1)+1)</f>
         <v>Hickam</v>
       </c>
       <c r="AC74" s="142" t="s">
@@ -14499,7 +17103,7 @@
         <v>141</v>
       </c>
       <c r="AH74" s="142" t="str">
-        <f t="shared" ref="AH74:AH81" si="6">INDEX($C$3:$C$7,MID(AI74, LEN(AI74)-1,1)+1)</f>
+        <f t="shared" ref="AH74:AH81" si="12">INDEX($C$3:$C$7,MID(AI74, LEN(AI74)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AI74" s="142" t="s">
@@ -14515,7 +17119,7 @@
         <v>141</v>
       </c>
       <c r="AN74" s="142" t="str">
-        <f t="shared" ref="AN74:AN81" si="7">INDEX($C$3:$C$7,MID(AO74, LEN(AO74)-1,1)+1)</f>
+        <f t="shared" ref="AN74:AN81" si="13">INDEX($C$3:$C$7,MID(AO74, LEN(AO74)-1,1)+1)</f>
         <v>Cheyenne</v>
       </c>
       <c r="AO74" s="142" t="s">
@@ -14563,7 +17167,7 @@
         <v>29</v>
       </c>
       <c r="V75" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W75, LEN(W75)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Hickam</v>
       </c>
       <c r="W75" s="142" t="s">
@@ -14579,7 +17183,7 @@
         <v>142</v>
       </c>
       <c r="AB75" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC75, LEN(AC75)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Hickam</v>
       </c>
       <c r="AC75" s="142" t="s">
@@ -14595,7 +17199,7 @@
         <v>141</v>
       </c>
       <c r="AH75" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI75" s="142" t="s">
@@ -14611,7 +17215,7 @@
         <v>141</v>
       </c>
       <c r="AN75" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO75" s="142" t="s">
@@ -14659,7 +17263,7 @@
         <v>31</v>
       </c>
       <c r="V76" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W76, LEN(W76)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Hickam</v>
       </c>
       <c r="W76" s="142" t="s">
@@ -14675,7 +17279,7 @@
         <v>31</v>
       </c>
       <c r="AB76" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC76, LEN(AC76)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Hickam</v>
       </c>
       <c r="AC76" s="142" t="s">
@@ -14691,7 +17295,7 @@
         <v>142</v>
       </c>
       <c r="AH76" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Hickam</v>
       </c>
       <c r="AI76" s="142" t="s">
@@ -14707,7 +17311,7 @@
         <v>142</v>
       </c>
       <c r="AN76" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Hickam</v>
       </c>
       <c r="AO76" s="142" t="s">
@@ -14755,7 +17359,7 @@
         <v>31</v>
       </c>
       <c r="V77" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W77, LEN(W77)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Hickam</v>
       </c>
       <c r="W77" s="142" t="s">
@@ -14771,7 +17375,7 @@
         <v>142</v>
       </c>
       <c r="AB77" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC77, LEN(AC77)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Hickam</v>
       </c>
       <c r="AC77" s="142" t="s">
@@ -14787,7 +17391,7 @@
         <v>142</v>
       </c>
       <c r="AH77" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Hickam</v>
       </c>
       <c r="AI77" s="142" t="s">
@@ -14803,7 +17407,7 @@
         <v>142</v>
       </c>
       <c r="AN77" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Hickam</v>
       </c>
       <c r="AO77" s="142" t="s">
@@ -14851,7 +17455,7 @@
         <v>31</v>
       </c>
       <c r="V78" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W78, LEN(W78)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Ramstein</v>
       </c>
       <c r="W78" s="142" t="s">
@@ -14867,7 +17471,7 @@
         <v>141</v>
       </c>
       <c r="AB78" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC78, LEN(AC78)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Cheyenne</v>
       </c>
       <c r="AC78" s="142" t="s">
@@ -14883,7 +17487,7 @@
         <v>142</v>
       </c>
       <c r="AH78" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Hickam</v>
       </c>
       <c r="AI78" s="142" t="s">
@@ -14899,7 +17503,7 @@
         <v>142</v>
       </c>
       <c r="AN78" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Hickam</v>
       </c>
       <c r="AO78" s="142" t="s">
@@ -14947,7 +17551,7 @@
         <v>31</v>
       </c>
       <c r="V79" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W79, LEN(W79)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Ramstein</v>
       </c>
       <c r="W79" s="142" t="s">
@@ -14963,7 +17567,7 @@
         <v>29</v>
       </c>
       <c r="AB79" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC79, LEN(AC79)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Hickam</v>
       </c>
       <c r="AC79" s="142" t="s">
@@ -14979,7 +17583,7 @@
         <v>142</v>
       </c>
       <c r="AH79" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI79" s="142" t="s">
@@ -14995,7 +17599,7 @@
         <v>142</v>
       </c>
       <c r="AN79" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO79" s="142" t="s">
@@ -15043,7 +17647,7 @@
         <v>141</v>
       </c>
       <c r="V80" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W80, LEN(W80)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Cheyenne</v>
       </c>
       <c r="W80" s="142" t="s">
@@ -15059,7 +17663,7 @@
         <v>29</v>
       </c>
       <c r="AB80" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC80, LEN(AC80)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Hickam</v>
       </c>
       <c r="AC80" s="142" t="s">
@@ -15075,7 +17679,7 @@
         <v>142</v>
       </c>
       <c r="AH80" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI80" s="142" t="s">
@@ -15091,7 +17695,7 @@
         <v>142</v>
       </c>
       <c r="AN80" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO80" s="142" t="s">
@@ -15139,7 +17743,7 @@
         <v>141</v>
       </c>
       <c r="V81" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(W81, LEN(W81)-1,1)+1)</f>
+        <f t="shared" si="10"/>
         <v>Cheyenne</v>
       </c>
       <c r="W81" s="142" t="s">
@@ -15155,7 +17759,7 @@
         <v>29</v>
       </c>
       <c r="AB81" s="142" t="str">
-        <f>INDEX($C$3:$C$7,MID(AC81, LEN(AC81)-1,1)+1)</f>
+        <f t="shared" si="11"/>
         <v>Hickam</v>
       </c>
       <c r="AC81" s="142" t="s">
@@ -15171,7 +17775,7 @@
         <v>142</v>
       </c>
       <c r="AH81" s="142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>Cheyenne</v>
       </c>
       <c r="AI81" s="142" t="s">
@@ -15187,7 +17791,7 @@
         <v>142</v>
       </c>
       <c r="AN81" s="142" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Cheyenne</v>
       </c>
       <c r="AO81" s="142" t="s">
@@ -15291,115 +17895,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF9F89-68E1-4DAC-B5A7-ADEE70401A99}">
-  <dimension ref="D4:F12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="209" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="210" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="211" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="212">
-        <v>0</v>
-      </c>
-      <c r="E5" s="143">
-        <v>0</v>
-      </c>
-      <c r="F5" s="213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="212">
-        <v>0</v>
-      </c>
-      <c r="E6" s="143">
-        <v>0</v>
-      </c>
-      <c r="F6" s="213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="212">
-        <v>0</v>
-      </c>
-      <c r="E7" s="143">
-        <v>1</v>
-      </c>
-      <c r="F7" s="213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="212">
-        <v>0</v>
-      </c>
-      <c r="E8" s="143">
-        <v>1</v>
-      </c>
-      <c r="F8" s="213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="212">
-        <v>1</v>
-      </c>
-      <c r="E9" s="143">
-        <v>0</v>
-      </c>
-      <c r="F9" s="213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="212">
-        <v>1</v>
-      </c>
-      <c r="E10" s="143">
-        <v>0</v>
-      </c>
-      <c r="F10" s="213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="212">
-        <v>1</v>
-      </c>
-      <c r="E11" s="143">
-        <v>1</v>
-      </c>
-      <c r="F11" s="213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="214">
-        <v>1</v>
-      </c>
-      <c r="E12" s="215">
-        <v>1</v>
-      </c>
-      <c r="F12" s="216">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15456,28 +17961,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="226"/>
-      <c r="AA1" s="226"/>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="218"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
+      <c r="S1" s="218"/>
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
     </row>
     <row r="2" spans="1:38" s="4" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -16739,16 +19244,16 @@
       <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="227" t="s">
+      <c r="A19" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="221" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="230"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="231"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="223"/>
       <c r="G19" s="85"/>
       <c r="H19" s="85"/>
       <c r="I19" s="85"/>
@@ -16805,7 +19310,7 @@
       <c r="AL19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="228"/>
+      <c r="A20" s="220"/>
       <c r="B20" s="35" t="s">
         <v>23</v>
       </c>
@@ -16940,10 +19445,10 @@
         <v>2.0618556701030927E-2</v>
       </c>
       <c r="V21" s="12"/>
-      <c r="Z21" s="232" t="s">
+      <c r="Z21" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="AA21" s="233"/>
+      <c r="AA21" s="225"/>
       <c r="AD21" s="12"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12"/>
@@ -17386,16 +19891,16 @@
       <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="234" t="s">
+      <c r="A28" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="236" t="s">
+      <c r="B28" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="237"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="237"/>
-      <c r="F28" s="238"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="230"/>
       <c r="K28" s="105" t="s">
         <v>48</v>
       </c>
@@ -17421,7 +19926,7 @@
       <c r="AH28" s="12"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235"/>
+      <c r="A29" s="227"/>
       <c r="B29" s="102" t="s">
         <v>23</v>
       </c>
@@ -17481,11 +19986,11 @@
       <c r="F31" s="21">
         <v>50</v>
       </c>
-      <c r="K31" s="225"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="225"/>
-      <c r="O31" s="225"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="AF31" s="12"/>
